--- a/диплом/база.xlsx
+++ b/диплом/база.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\diplom\диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A9705A-FB4A-40E3-BE8A-003742F1984C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7110ECAE-8582-4CE2-951F-439A6E918791}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5268" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">юд!$A$1:$BN$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">юд!$A$1:$BN$163</definedName>
     <definedName name="ИН">[1]Проверки!$Q$2:$Q$255</definedName>
     <definedName name="ОТ">[1]Проверки!$R$2:$R$3</definedName>
     <definedName name="спВиды">[1]Проверки!$K$2:$K$29</definedName>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9781" uniqueCount="1039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9756" uniqueCount="1037">
   <si>
     <t>Иностранный язык</t>
   </si>
@@ -3111,12 +3111,6 @@
   </si>
   <si>
     <t xml:space="preserve">Организация деятельности суда </t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>11</t>
   </si>
   <si>
     <t>юз-48</t>
@@ -3256,7 +3250,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3331,6 +3325,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -16687,10 +16690,10 @@
   <dimension ref="A1:CE163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F137" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BJ162" sqref="BJ162"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -16707,7 +16710,7 @@
     <col min="10" max="10" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" style="10" customWidth="1"/>
     <col min="12" max="12" width="51.33203125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.5546875" style="10" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="30" customWidth="1"/>
     <col min="14" max="14" width="7.6640625" style="10" customWidth="1"/>
     <col min="15" max="64" width="5.6640625" style="10" customWidth="1"/>
     <col min="65" max="65" width="11.109375" style="10" customWidth="1"/>
@@ -16749,7 +16752,7 @@
       <c r="L1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="28" t="s">
         <v>723</v>
       </c>
       <c r="N1" s="13" t="s">
@@ -16917,7 +16920,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="2" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -17124,7 +17127,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>220</v>
       </c>
@@ -17331,7 +17334,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>220</v>
       </c>
@@ -17538,7 +17541,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>220</v>
       </c>
@@ -17745,7 +17748,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>220</v>
       </c>
@@ -17952,7 +17955,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>220</v>
       </c>
@@ -18159,7 +18162,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -18366,7 +18369,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -18573,7 +18576,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -18780,7 +18783,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="11" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>220</v>
       </c>
@@ -18987,7 +18990,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="12" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>220</v>
       </c>
@@ -19194,7 +19197,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="13" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>220</v>
       </c>
@@ -19401,7 +19404,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="14" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>220</v>
       </c>
@@ -19608,7 +19611,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="15" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>220</v>
       </c>
@@ -19815,7 +19818,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="16" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>220</v>
       </c>
@@ -20022,7 +20025,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="17" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>220</v>
       </c>
@@ -20229,7 +20232,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="18" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>220</v>
       </c>
@@ -20436,7 +20439,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="19" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>220</v>
       </c>
@@ -20643,7 +20646,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="20" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>220</v>
       </c>
@@ -20850,7 +20853,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="21" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>220</v>
       </c>
@@ -21057,7 +21060,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="22" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>220</v>
       </c>
@@ -21264,7 +21267,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="23" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>220</v>
       </c>
@@ -21471,7 +21474,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="24" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>220</v>
       </c>
@@ -21678,7 +21681,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="25" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>220</v>
       </c>
@@ -21885,7 +21888,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="26" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>220</v>
       </c>
@@ -22092,7 +22095,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="27" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>220</v>
       </c>
@@ -22299,7 +22302,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="28" spans="1:69" s="2" customFormat="1" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:69" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>221</v>
       </c>
@@ -22511,7 +22514,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24АбИнТи.png</v>
       </c>
     </row>
-    <row r="29" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>221</v>
       </c>
@@ -22723,7 +22726,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24АлМуРа.png</v>
       </c>
     </row>
-    <row r="30" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>221</v>
       </c>
@@ -22935,7 +22938,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24АхИнМа.png</v>
       </c>
     </row>
-    <row r="31" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -23147,7 +23150,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24БоСоСт.png</v>
       </c>
     </row>
-    <row r="32" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>221</v>
       </c>
@@ -23359,7 +23362,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ГиТаКа.png</v>
       </c>
     </row>
-    <row r="33" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>221</v>
       </c>
@@ -23571,7 +23574,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24КуИсАд.png</v>
       </c>
     </row>
-    <row r="34" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>221</v>
       </c>
@@ -23783,7 +23786,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ЛиМуАн.png</v>
       </c>
     </row>
-    <row r="35" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>221</v>
       </c>
@@ -23995,7 +23998,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24МеАмЮр.png</v>
       </c>
     </row>
-    <row r="36" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>221</v>
       </c>
@@ -24207,7 +24210,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ТоДжИб.png</v>
       </c>
     </row>
-    <row r="37" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>221</v>
       </c>
@@ -24419,7 +24422,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ХаАхАр.png</v>
       </c>
     </row>
-    <row r="38" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>221</v>
       </c>
@@ -24631,7 +24634,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24АлЗаСу.png</v>
       </c>
     </row>
-    <row r="39" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>221</v>
       </c>
@@ -24843,7 +24846,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24АнВиВи.png</v>
       </c>
     </row>
-    <row r="40" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>221</v>
       </c>
@@ -25055,7 +25058,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24БоЕвНи.png</v>
       </c>
     </row>
-    <row r="41" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>221</v>
       </c>
@@ -25267,7 +25270,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ГеРаМа.png</v>
       </c>
     </row>
-    <row r="42" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>221</v>
       </c>
@@ -25479,7 +25482,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ГрКрВи.png</v>
       </c>
     </row>
-    <row r="43" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>221</v>
       </c>
@@ -25691,7 +25694,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ГуАлБо.png</v>
       </c>
     </row>
-    <row r="44" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>221</v>
       </c>
@@ -25903,7 +25906,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ЖеЗаФу.png</v>
       </c>
     </row>
-    <row r="45" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>221</v>
       </c>
@@ -26115,7 +26118,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24КаДиМа.png</v>
       </c>
     </row>
-    <row r="46" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>221</v>
       </c>
@@ -26327,7 +26330,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24КнМаХа.png</v>
       </c>
     </row>
-    <row r="47" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>221</v>
       </c>
@@ -26539,7 +26542,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24КоНюЗа.png</v>
       </c>
     </row>
-    <row r="48" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>221</v>
       </c>
@@ -26751,7 +26754,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24КуСаМу.png</v>
       </c>
     </row>
-    <row r="49" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>221</v>
       </c>
@@ -26963,7 +26966,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24КуМиМу.png</v>
       </c>
     </row>
-    <row r="50" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>221</v>
       </c>
@@ -27175,7 +27178,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24НаАнАн.png</v>
       </c>
     </row>
-    <row r="51" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>221</v>
       </c>
@@ -27387,7 +27390,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24АгАлМи.png</v>
       </c>
     </row>
-    <row r="52" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>221</v>
       </c>
@@ -27599,7 +27602,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24СаАрХа.png</v>
       </c>
     </row>
-    <row r="53" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>221</v>
       </c>
@@ -27811,7 +27814,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24СоДиМа.png</v>
       </c>
     </row>
-    <row r="54" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>221</v>
       </c>
@@ -28023,7 +28026,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ТаАдВа.png</v>
       </c>
     </row>
-    <row r="55" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>221</v>
       </c>
@@ -28235,7 +28238,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ШиАрЗа.png</v>
       </c>
     </row>
-    <row r="56" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>221</v>
       </c>
@@ -28447,7 +28450,7 @@
         <v>D:\dev\diplom\диплом\img\юд-24ЯхТеХа.png</v>
       </c>
     </row>
-    <row r="57" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -28659,7 +28662,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25АбАлАр.png</v>
       </c>
     </row>
-    <row r="58" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>222</v>
       </c>
@@ -28871,7 +28874,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25АзАсЮр.png</v>
       </c>
     </row>
-    <row r="59" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>222</v>
       </c>
@@ -29083,7 +29086,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ЖуАрЮр.png</v>
       </c>
     </row>
-    <row r="60" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>222</v>
       </c>
@@ -29295,7 +29298,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25АзРаКа.png</v>
       </c>
     </row>
-    <row r="61" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>222</v>
       </c>
@@ -29507,7 +29510,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25АтРаАм.png</v>
       </c>
     </row>
-    <row r="62" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>222</v>
       </c>
@@ -29901,7 +29904,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25АфМиСа.png</v>
       </c>
     </row>
-    <row r="64" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>222</v>
       </c>
@@ -30113,7 +30116,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25БаАхАл.png</v>
       </c>
     </row>
-    <row r="65" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>222</v>
       </c>
@@ -30325,7 +30328,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25БеАнХа.png</v>
       </c>
     </row>
-    <row r="66" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>222</v>
       </c>
@@ -30537,7 +30540,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ГеИлТу.png</v>
       </c>
     </row>
-    <row r="67" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>222</v>
       </c>
@@ -30749,7 +30752,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ДыСаРа.png</v>
       </c>
     </row>
-    <row r="68" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>222</v>
       </c>
@@ -30961,7 +30964,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ИсАдИс.png</v>
       </c>
     </row>
-    <row r="69" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>222</v>
       </c>
@@ -31355,7 +31358,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25КуАнМа.png</v>
       </c>
     </row>
-    <row r="71" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>222</v>
       </c>
@@ -31567,7 +31570,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25КуАлЗа.png</v>
       </c>
     </row>
-    <row r="72" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>222</v>
       </c>
@@ -31779,7 +31782,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25КуКаЮс.png</v>
       </c>
     </row>
-    <row r="73" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>222</v>
       </c>
@@ -31991,7 +31994,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25КаМаВл.png</v>
       </c>
     </row>
-    <row r="74" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>222</v>
       </c>
@@ -32385,7 +32388,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ПхИсЗа.png</v>
       </c>
     </row>
-    <row r="76" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -32597,7 +32600,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ТаАсМу.png</v>
       </c>
     </row>
-    <row r="77" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>222</v>
       </c>
@@ -32809,7 +32812,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ШеАзАс.png</v>
       </c>
     </row>
-    <row r="78" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>222</v>
       </c>
@@ -33021,7 +33024,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ШеАнЗа.png</v>
       </c>
     </row>
-    <row r="79" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -33233,7 +33236,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ХоРоРу.png</v>
       </c>
     </row>
-    <row r="80" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>222</v>
       </c>
@@ -33445,7 +33448,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ХаАсАр.png</v>
       </c>
     </row>
-    <row r="81" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>222</v>
       </c>
@@ -33839,7 +33842,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ЧоИсМа.png</v>
       </c>
     </row>
-    <row r="83" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>222</v>
       </c>
@@ -34051,7 +34054,7 @@
         <v>D:\dev\diplom\диплом\img\юд-25ЭлАлСу.png</v>
       </c>
     </row>
-    <row r="84" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>223</v>
       </c>
@@ -34263,7 +34266,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26АгМаКа.png</v>
       </c>
     </row>
-    <row r="85" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>223</v>
       </c>
@@ -34475,7 +34478,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26АпАсРи.png</v>
       </c>
     </row>
-    <row r="86" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>223</v>
       </c>
@@ -34687,7 +34690,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26БиАнРа.png</v>
       </c>
     </row>
-    <row r="87" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>223</v>
       </c>
@@ -34899,7 +34902,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26БоАсАр.png</v>
       </c>
     </row>
-    <row r="88" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>223</v>
       </c>
@@ -35111,7 +35114,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ГаВаВл.png</v>
       </c>
     </row>
-    <row r="89" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>223</v>
       </c>
@@ -35323,7 +35326,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ГоЕвЮр.png</v>
       </c>
     </row>
-    <row r="90" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>223</v>
       </c>
@@ -35535,7 +35538,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ДаРаАн.png</v>
       </c>
     </row>
-    <row r="91" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>223</v>
       </c>
@@ -35747,7 +35750,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ДжАбРа.png</v>
       </c>
     </row>
-    <row r="92" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>223</v>
       </c>
@@ -35959,7 +35962,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ДжИмМа.png</v>
       </c>
     </row>
-    <row r="93" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>223</v>
       </c>
@@ -36171,7 +36174,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ДоБеМу.png</v>
       </c>
     </row>
-    <row r="94" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>223</v>
       </c>
@@ -36383,7 +36386,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26КаКаОл.png</v>
       </c>
     </row>
-    <row r="95" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>223</v>
       </c>
@@ -37141,7 +37144,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26МаЛяТи.png</v>
       </c>
     </row>
-    <row r="99" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>223</v>
       </c>
@@ -37353,7 +37356,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26МиМаЗа.png</v>
       </c>
     </row>
-    <row r="100" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>223</v>
       </c>
@@ -37565,7 +37568,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26МуИсМу.png</v>
       </c>
     </row>
-    <row r="101" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>223</v>
       </c>
@@ -37777,7 +37780,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26МуАдМи.png</v>
       </c>
     </row>
-    <row r="102" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>223</v>
       </c>
@@ -37989,7 +37992,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ОрБаРа.png</v>
       </c>
     </row>
-    <row r="103" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>223</v>
       </c>
@@ -38383,7 +38386,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26РаИсХа.png</v>
       </c>
     </row>
-    <row r="105" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>223</v>
       </c>
@@ -38595,7 +38598,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26СаАрСа.png</v>
       </c>
     </row>
-    <row r="106" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>223</v>
       </c>
@@ -38807,7 +38810,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ТеАсАс.png</v>
       </c>
     </row>
-    <row r="107" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>223</v>
       </c>
@@ -39201,7 +39204,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26ШаМиХа.png</v>
       </c>
     </row>
-    <row r="109" spans="1:69" s="1" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:69" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>223</v>
       </c>
@@ -39413,7 +39416,7 @@
         <v>D:\dev\diplom\диплом\img\юд-26МаАлАб.png</v>
       </c>
     </row>
-    <row r="110" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
         <v>761</v>
       </c>
@@ -39623,7 +39626,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2БеКаАн.png</v>
       </c>
     </row>
-    <row r="111" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
         <v>761</v>
       </c>
@@ -39833,7 +39836,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2КаДиЗа.png</v>
       </c>
     </row>
-    <row r="112" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
         <v>761</v>
       </c>
@@ -40043,7 +40046,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ЦеМаАл.png</v>
       </c>
     </row>
-    <row r="113" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
         <v>761</v>
       </c>
@@ -40253,7 +40256,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ХаАсАр.png</v>
       </c>
     </row>
-    <row r="114" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
         <v>761</v>
       </c>
@@ -40463,7 +40466,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ХаОсКу.png</v>
       </c>
     </row>
-    <row r="115" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
         <v>761</v>
       </c>
@@ -40673,7 +40676,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ФеАрЗа.png</v>
       </c>
     </row>
-    <row r="116" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
         <v>761</v>
       </c>
@@ -40883,7 +40886,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ТхТаЗа.png</v>
       </c>
     </row>
-    <row r="117" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="7" t="s">
         <v>761</v>
       </c>
@@ -41093,7 +41096,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ТхАлАс.png</v>
       </c>
     </row>
-    <row r="118" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="7" t="s">
         <v>761</v>
       </c>
@@ -41303,7 +41306,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ТоАзАл.png</v>
       </c>
     </row>
-    <row r="119" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="7" t="s">
         <v>761</v>
       </c>
@@ -41513,7 +41516,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2СаДиИс.png</v>
       </c>
     </row>
-    <row r="120" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="7" t="s">
         <v>761</v>
       </c>
@@ -41723,7 +41726,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ОзЗаЗа.png</v>
       </c>
     </row>
-    <row r="121" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="7" t="s">
         <v>761</v>
       </c>
@@ -41933,7 +41936,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ОзАсРу.png</v>
       </c>
     </row>
-    <row r="122" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="7" t="s">
         <v>761</v>
       </c>
@@ -42143,7 +42146,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ОзАсАн.png</v>
       </c>
     </row>
-    <row r="123" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="7" t="s">
         <v>761</v>
       </c>
@@ -42353,7 +42356,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2МаСаЛе.png</v>
       </c>
     </row>
-    <row r="124" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="7" t="s">
         <v>761</v>
       </c>
@@ -42563,7 +42566,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2КуЗаМа.png</v>
       </c>
     </row>
-    <row r="125" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="7" t="s">
         <v>761</v>
       </c>
@@ -42773,7 +42776,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2КуМуХа.png</v>
       </c>
     </row>
-    <row r="126" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="7" t="s">
         <v>761</v>
       </c>
@@ -42983,7 +42986,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2КаКаРа.png</v>
       </c>
     </row>
-    <row r="127" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="7" t="s">
         <v>761</v>
       </c>
@@ -43193,7 +43196,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2БеАзАн.png</v>
       </c>
     </row>
-    <row r="128" spans="1:69" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:69" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="7" t="s">
         <v>761</v>
       </c>
@@ -43403,7 +43406,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ДоСтОл.png</v>
       </c>
     </row>
-    <row r="129" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="7" t="s">
         <v>761</v>
       </c>
@@ -43613,7 +43616,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ДзАмАх.png</v>
       </c>
     </row>
-    <row r="130" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="7" t="s">
         <v>761</v>
       </c>
@@ -43823,7 +43826,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ГеАсТи.png</v>
       </c>
     </row>
-    <row r="131" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="7" t="s">
         <v>761</v>
       </c>
@@ -44033,7 +44036,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2ГеАсМу.png</v>
       </c>
     </row>
-    <row r="132" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="7" t="s">
         <v>761</v>
       </c>
@@ -44243,7 +44246,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2БуКъМу.png</v>
       </c>
     </row>
-    <row r="133" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="7" t="s">
         <v>761</v>
       </c>
@@ -44453,7 +44456,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2БиАхБа.png</v>
       </c>
     </row>
-    <row r="134" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="7" t="s">
         <v>761</v>
       </c>
@@ -44663,7 +44666,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2БаАлТи.png</v>
       </c>
     </row>
-    <row r="135" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="7" t="s">
         <v>761</v>
       </c>
@@ -44873,7 +44876,7 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2АфКаХа.png</v>
       </c>
     </row>
-    <row r="136" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="7" t="s">
         <v>761</v>
       </c>
@@ -45083,9 +45086,9 @@
         <v>D:\dev\diplom\диплом\img\юз-9-2АбМаМа.png</v>
       </c>
     </row>
-    <row r="137" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B137" s="18"/>
       <c r="C137" s="7" t="s">
@@ -45118,8 +45121,8 @@
       <c r="L137" s="16" t="s">
         <v>897</v>
       </c>
-      <c r="M137" s="16" t="s">
-        <v>1026</v>
+      <c r="M137" s="22">
+        <v>11</v>
       </c>
       <c r="N137" s="18"/>
       <c r="O137" s="7"/>
@@ -45262,9 +45265,9 @@
       </c>
       <c r="CE137" s="11"/>
     </row>
-    <row r="138" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B138" s="18"/>
       <c r="C138" s="7" t="s">
@@ -45297,8 +45300,8 @@
       <c r="L138" s="16" t="s">
         <v>897</v>
       </c>
-      <c r="M138" s="16" t="s">
-        <v>1026</v>
+      <c r="M138" s="22">
+        <v>11</v>
       </c>
       <c r="N138" s="18"/>
       <c r="O138" s="7"/>
@@ -45441,9 +45444,9 @@
       </c>
       <c r="CE138" s="11"/>
     </row>
-    <row r="139" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B139" s="18"/>
       <c r="C139" s="7" t="s">
@@ -45476,8 +45479,8 @@
       <c r="L139" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="M139" s="16" t="s">
-        <v>1026</v>
+      <c r="M139" s="22">
+        <v>11</v>
       </c>
       <c r="N139" s="18"/>
       <c r="O139" s="7"/>
@@ -45620,9 +45623,9 @@
       </c>
       <c r="CE139" s="11"/>
     </row>
-    <row r="140" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B140" s="18"/>
       <c r="C140" s="7" t="s">
@@ -45655,8 +45658,8 @@
       <c r="L140" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="M140" s="16" t="s">
-        <v>1026</v>
+      <c r="M140" s="22">
+        <v>11</v>
       </c>
       <c r="N140" s="18"/>
       <c r="O140" s="7" t="s">
@@ -45803,7 +45806,7 @@
     </row>
     <row r="141" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B141" s="18"/>
       <c r="C141" s="7" t="s">
@@ -45836,8 +45839,8 @@
       <c r="L141" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M141" s="16" t="s">
-        <v>1025</v>
+      <c r="M141" s="22">
+        <v>9</v>
       </c>
       <c r="N141" s="18"/>
       <c r="O141" s="7" t="s">
@@ -46010,9 +46013,9 @@
       </c>
       <c r="CE141" s="11"/>
     </row>
-    <row r="142" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B142" s="18"/>
       <c r="C142" s="7" t="s">
@@ -46045,8 +46048,8 @@
       <c r="L142" s="16" t="s">
         <v>927</v>
       </c>
-      <c r="M142" s="16" t="s">
-        <v>1026</v>
+      <c r="M142" s="22">
+        <v>11</v>
       </c>
       <c r="N142" s="18"/>
       <c r="O142" s="7"/>
@@ -46191,7 +46194,7 @@
     </row>
     <row r="143" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B143" s="18"/>
       <c r="C143" s="7" t="s">
@@ -46224,8 +46227,8 @@
       <c r="L143" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M143" s="16" t="s">
-        <v>1025</v>
+      <c r="M143" s="22">
+        <v>9</v>
       </c>
       <c r="N143" s="18"/>
       <c r="O143" s="7" t="s">
@@ -46400,7 +46403,7 @@
     </row>
     <row r="144" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B144" s="18"/>
       <c r="C144" s="7" t="s">
@@ -46433,8 +46436,8 @@
       <c r="L144" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M144" s="16" t="s">
-        <v>1025</v>
+      <c r="M144" s="22">
+        <v>9</v>
       </c>
       <c r="N144" s="18"/>
       <c r="O144" s="7" t="s">
@@ -46609,7 +46612,7 @@
     </row>
     <row r="145" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B145" s="18"/>
       <c r="C145" s="7" t="s">
@@ -46622,7 +46625,7 @@
         <v>942</v>
       </c>
       <c r="F145" s="16" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="G145" s="16" t="s">
         <v>895</v>
@@ -46642,8 +46645,8 @@
       <c r="L145" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M145" s="16" t="s">
-        <v>1025</v>
+      <c r="M145" s="22">
+        <v>9</v>
       </c>
       <c r="N145" s="18"/>
       <c r="O145" s="7" t="s">
@@ -46816,9 +46819,9 @@
       </c>
       <c r="CE145" s="11"/>
     </row>
-    <row r="146" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B146" s="18"/>
       <c r="C146" s="7" t="s">
@@ -46851,8 +46854,8 @@
       <c r="L146" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="M146" s="16" t="s">
-        <v>1026</v>
+      <c r="M146" s="22">
+        <v>11</v>
       </c>
       <c r="N146" s="18"/>
       <c r="O146" s="7"/>
@@ -46995,9 +46998,9 @@
       </c>
       <c r="CE146" s="11"/>
     </row>
-    <row r="147" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B147" s="18"/>
       <c r="C147" s="7" t="s">
@@ -47030,8 +47033,8 @@
       <c r="L147" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="M147" s="16" t="s">
-        <v>1026</v>
+      <c r="M147" s="22">
+        <v>11</v>
       </c>
       <c r="N147" s="18"/>
       <c r="O147" s="7"/>
@@ -47174,9 +47177,9 @@
       </c>
       <c r="CE147" s="11"/>
     </row>
-    <row r="148" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B148" s="18"/>
       <c r="C148" s="7" t="s">
@@ -47209,8 +47212,8 @@
       <c r="L148" s="16" t="s">
         <v>960</v>
       </c>
-      <c r="M148" s="16" t="s">
-        <v>1026</v>
+      <c r="M148" s="22">
+        <v>11</v>
       </c>
       <c r="N148" s="18"/>
       <c r="O148" s="7"/>
@@ -47355,7 +47358,7 @@
     </row>
     <row r="149" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B149" s="18"/>
       <c r="C149" s="7" t="s">
@@ -47388,8 +47391,8 @@
       <c r="L149" s="16" t="s">
         <v>966</v>
       </c>
-      <c r="M149" s="16" t="s">
-        <v>1025</v>
+      <c r="M149" s="22">
+        <v>9</v>
       </c>
       <c r="N149" s="18"/>
       <c r="O149" s="7" t="s">
@@ -47562,9 +47565,9 @@
       </c>
       <c r="CE149" s="11"/>
     </row>
-    <row r="150" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B150" s="18"/>
       <c r="C150" s="7" t="s">
@@ -47597,8 +47600,8 @@
       <c r="L150" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="M150" s="16" t="s">
-        <v>1026</v>
+      <c r="M150" s="22">
+        <v>11</v>
       </c>
       <c r="N150" s="18"/>
       <c r="O150" s="7"/>
@@ -47741,9 +47744,9 @@
       </c>
       <c r="CE150" s="11"/>
     </row>
-    <row r="151" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B151" s="18"/>
       <c r="C151" s="7" t="s">
@@ -47776,8 +47779,8 @@
       <c r="L151" s="16" t="s">
         <v>953</v>
       </c>
-      <c r="M151" s="16" t="s">
-        <v>1026</v>
+      <c r="M151" s="22">
+        <v>11</v>
       </c>
       <c r="N151" s="18"/>
       <c r="O151" s="7"/>
@@ -47920,9 +47923,9 @@
       </c>
       <c r="CE151" s="11"/>
     </row>
-    <row r="152" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B152" s="18"/>
       <c r="C152" s="7" t="s">
@@ -47955,8 +47958,8 @@
       <c r="L152" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="M152" s="16" t="s">
-        <v>1026</v>
+      <c r="M152" s="22">
+        <v>11</v>
       </c>
       <c r="N152" s="18"/>
       <c r="O152" s="7"/>
@@ -48099,9 +48102,9 @@
       </c>
       <c r="CE152" s="12"/>
     </row>
-    <row r="153" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B153" s="18"/>
       <c r="C153" s="7" t="s">
@@ -48134,8 +48137,8 @@
       <c r="L153" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="M153" s="16" t="s">
-        <v>1026</v>
+      <c r="M153" s="22">
+        <v>11</v>
       </c>
       <c r="N153" s="18"/>
       <c r="O153" s="7"/>
@@ -48278,9 +48281,9 @@
       </c>
       <c r="CE153" s="12"/>
     </row>
-    <row r="154" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B154" s="18"/>
       <c r="C154" s="7" t="s">
@@ -48293,7 +48296,7 @@
         <v>987</v>
       </c>
       <c r="F154" s="16" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="G154" s="16" t="s">
         <v>895</v>
@@ -48313,8 +48316,8 @@
       <c r="L154" s="16" t="s">
         <v>897</v>
       </c>
-      <c r="M154" s="16" t="s">
-        <v>1026</v>
+      <c r="M154" s="22">
+        <v>11</v>
       </c>
       <c r="N154" s="18"/>
       <c r="O154" s="7"/>
@@ -48459,7 +48462,7 @@
     </row>
     <row r="155" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B155" s="18"/>
       <c r="C155" s="7" t="s">
@@ -48492,8 +48495,8 @@
       <c r="L155" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M155" s="16" t="s">
-        <v>1025</v>
+      <c r="M155" s="22">
+        <v>9</v>
       </c>
       <c r="N155" s="18"/>
       <c r="O155" s="7" t="s">
@@ -48668,7 +48671,7 @@
     </row>
     <row r="156" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="7" t="s">
@@ -48701,8 +48704,8 @@
       <c r="L156" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M156" s="16" t="s">
-        <v>1025</v>
+      <c r="M156" s="22">
+        <v>9</v>
       </c>
       <c r="N156" s="18"/>
       <c r="O156" s="7" t="s">
@@ -48877,7 +48880,7 @@
     </row>
     <row r="157" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B157" s="18"/>
       <c r="C157" s="7" t="s">
@@ -48910,8 +48913,8 @@
       <c r="L157" s="16" t="s">
         <v>1003</v>
       </c>
-      <c r="M157" s="16" t="s">
-        <v>1025</v>
+      <c r="M157" s="22">
+        <v>9</v>
       </c>
       <c r="N157" s="18"/>
       <c r="O157" s="7" t="s">
@@ -49086,7 +49089,7 @@
     </row>
     <row r="158" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B158" s="18"/>
       <c r="C158" s="7" t="s">
@@ -49119,8 +49122,8 @@
       <c r="L158" s="16" t="s">
         <v>920</v>
       </c>
-      <c r="M158" s="16" t="s">
-        <v>1025</v>
+      <c r="M158" s="22">
+        <v>9</v>
       </c>
       <c r="N158" s="18"/>
       <c r="O158" s="7" t="s">
@@ -49293,9 +49296,9 @@
       </c>
       <c r="CE158" s="12"/>
     </row>
-    <row r="159" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B159" s="18"/>
       <c r="C159" s="7" t="s">
@@ -49328,8 +49331,8 @@
       <c r="L159" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="M159" s="16" t="s">
-        <v>1026</v>
+      <c r="M159" s="22">
+        <v>11</v>
       </c>
       <c r="N159" s="18"/>
       <c r="O159" s="7"/>
@@ -49472,9 +49475,9 @@
       </c>
       <c r="CE159" s="12"/>
     </row>
-    <row r="160" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B160" s="18"/>
       <c r="C160" s="7" t="s">
@@ -49507,8 +49510,8 @@
       <c r="L160" s="16" t="s">
         <v>913</v>
       </c>
-      <c r="M160" s="16" t="s">
-        <v>1026</v>
+      <c r="M160" s="22">
+        <v>11</v>
       </c>
       <c r="N160" s="18"/>
       <c r="O160" s="7"/>
@@ -49653,7 +49656,7 @@
     </row>
     <row r="161" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B161" s="18"/>
       <c r="C161" s="7" t="s">
@@ -49686,8 +49689,8 @@
       <c r="L161" s="16" t="s">
         <v>1023</v>
       </c>
-      <c r="M161" s="16" t="s">
-        <v>1025</v>
+      <c r="M161" s="22">
+        <v>9</v>
       </c>
       <c r="N161" s="18"/>
       <c r="O161" s="7" t="s">
@@ -49860,25 +49863,25 @@
       </c>
       <c r="CE161" s="12"/>
     </row>
-    <row r="162" spans="1:83" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:83" ht="13.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="18" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B162" s="18"/>
       <c r="C162" s="18" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="D162" s="18" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E162" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="G162" s="24" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="H162" s="24">
         <v>222609</v>
@@ -49887,7 +49890,7 @@
         <v>110724</v>
       </c>
       <c r="J162" s="24" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="K162" s="24" t="s">
         <v>191</v>
@@ -49895,8 +49898,8 @@
       <c r="L162" s="24" t="s">
         <v>642</v>
       </c>
-      <c r="M162" s="24" t="s">
-        <v>1037</v>
+      <c r="M162" s="29" t="s">
+        <v>1035</v>
       </c>
       <c r="N162" s="24"/>
       <c r="O162" s="18"/>
@@ -50023,7 +50026,7 @@
         <v>759</v>
       </c>
       <c r="BN162" s="26" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="BO162" s="18" t="str">
         <f t="shared" ref="BO162" si="15">_xlfn.CONCAT(A162,LEFT(C162,2),LEFT(D162,2),LEFT(E162,2))</f>
@@ -50038,9 +50041,9 @@
         <v>D:\dev\diplom\диплом\img\ю-94АфАмАс.png</v>
       </c>
     </row>
-    <row r="163" spans="1:83" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:83" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="18" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B163" s="18"/>
       <c r="C163" s="18"/>
@@ -50053,7 +50056,7 @@
       <c r="J163" s="18"/>
       <c r="K163" s="18"/>
       <c r="L163" s="18"/>
-      <c r="M163" s="18"/>
+      <c r="M163" s="29"/>
       <c r="N163" s="18"/>
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
@@ -50112,10 +50115,10 @@
       <c r="BQ163" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:BN161" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="0">
+  <autoFilter ref="A1:BN163" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="12">
       <filters>
-        <filter val="юз-48"/>
+        <filter val="9"/>
       </filters>
     </filterColumn>
     <sortState ref="A110:BN136">

--- a/диплом/база.xlsx
+++ b/диплом/база.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\diplom\диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC9E96A-9991-4FDB-B331-7D902FD2B59A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069F0FB-537D-409D-BFED-8108A2D56D8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5268" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">товаровед!$A$1:$AB$135</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">товаровед!$A$1:$AB$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">юд!$A$1:$BN$163</definedName>
     <definedName name="ИН">[1]Проверки!$Q$2:$Q$255</definedName>
     <definedName name="ОТ">[1]Проверки!$R$2:$R$3</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9810" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9804" uniqueCount="1058">
   <si>
     <t>Иностранный язык</t>
   </si>
@@ -3164,18 +3164,6 @@
   </si>
   <si>
     <t>аттестат о среднем общем образовании</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Среднее</t>
-  </si>
-  <si>
-    <t>С нарастающим итогом</t>
-  </si>
-  <si>
-    <t>Количество</t>
   </si>
   <si>
     <t>Политэкономия</t>
@@ -50222,13 +50210,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS135"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N2" sqref="N2:AA2"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -50291,49 +50279,49 @@
         <v>719</v>
       </c>
       <c r="N1" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>1046</v>
       </c>
-      <c r="O1" s="19" t="s">
-        <v>1060</v>
-      </c>
-      <c r="P1" s="19" t="s">
+      <c r="T1" s="19" t="s">
         <v>1047</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="U1" s="19" t="s">
         <v>1048</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="V1" s="19" t="s">
         <v>1049</v>
       </c>
-      <c r="S1" s="19" t="s">
+      <c r="W1" s="19" t="s">
         <v>1050</v>
       </c>
-      <c r="T1" s="19" t="s">
+      <c r="X1" s="19" t="s">
         <v>1051</v>
-      </c>
-      <c r="U1" s="19" t="s">
-        <v>1052</v>
-      </c>
-      <c r="V1" s="19" t="s">
-        <v>1053</v>
-      </c>
-      <c r="W1" s="19" t="s">
-        <v>1054</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>1055</v>
       </c>
       <c r="Y1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="Z1" s="19" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="AA1" s="19" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="AB1" s="19" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="AC1" s="19"/>
       <c r="AD1" s="19"/>
@@ -50343,7 +50331,7 @@
     </row>
     <row r="2" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
@@ -50413,7 +50401,7 @@
         <v>755</v>
       </c>
       <c r="Y2" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="Z2" t="s">
         <v>754</v>
@@ -50437,4264 +50425,8 @@
         <v>D:\dev\diplom\диплом\img\а-84КаЛюКа.png</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3"/>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3"/>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3"/>
-      <c r="W3"/>
-      <c r="X3"/>
-      <c r="Y3"/>
-      <c r="Z3"/>
-      <c r="AA3"/>
-      <c r="AB3"/>
-      <c r="AD3"/>
-    </row>
-    <row r="4" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4"/>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AD4"/>
-    </row>
-    <row r="5" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="G5"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
-      <c r="N5"/>
-      <c r="O5"/>
-      <c r="P5"/>
-      <c r="Q5"/>
-      <c r="R5"/>
-      <c r="S5"/>
-      <c r="T5"/>
-      <c r="U5"/>
-      <c r="V5"/>
-      <c r="W5"/>
-      <c r="X5"/>
-      <c r="Y5"/>
-      <c r="Z5"/>
-      <c r="AA5"/>
-      <c r="AB5"/>
-      <c r="AD5"/>
-    </row>
-    <row r="6" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6"/>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6"/>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
-      <c r="S6"/>
-      <c r="T6"/>
-      <c r="U6"/>
-      <c r="V6"/>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AD6"/>
-    </row>
-    <row r="7" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7"/>
-      <c r="S7"/>
-      <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7"/>
-      <c r="W7"/>
-      <c r="X7"/>
-      <c r="Y7"/>
-      <c r="Z7"/>
-      <c r="AA7"/>
-      <c r="AB7"/>
-      <c r="AD7"/>
-    </row>
-    <row r="8" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
-      <c r="Q8"/>
-      <c r="R8"/>
-      <c r="S8"/>
-      <c r="T8"/>
-      <c r="U8"/>
-      <c r="V8"/>
-      <c r="W8"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="G9"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9"/>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
-      <c r="S9"/>
-      <c r="T9"/>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
-      <c r="AA9"/>
-      <c r="AB9"/>
-      <c r="AD9"/>
-    </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="G10"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10"/>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10"/>
-      <c r="O10"/>
-      <c r="P10"/>
-      <c r="Q10"/>
-      <c r="R10"/>
-      <c r="S10"/>
-      <c r="T10"/>
-      <c r="U10"/>
-      <c r="V10"/>
-      <c r="W10"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AD10"/>
-    </row>
-    <row r="11" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AD11"/>
-    </row>
-    <row r="12" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
-      <c r="S12"/>
-      <c r="T12"/>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AD12"/>
-    </row>
-    <row r="13" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13"/>
-      <c r="L13"/>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
-      <c r="Q13"/>
-      <c r="R13"/>
-      <c r="S13"/>
-      <c r="T13"/>
-      <c r="U13"/>
-      <c r="V13"/>
-      <c r="W13"/>
-      <c r="X13"/>
-      <c r="Y13"/>
-      <c r="Z13"/>
-      <c r="AA13"/>
-      <c r="AB13"/>
-      <c r="AD13"/>
-    </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
-      <c r="Q14"/>
-      <c r="R14"/>
-      <c r="S14"/>
-      <c r="T14"/>
-      <c r="U14"/>
-      <c r="V14"/>
-      <c r="W14"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AD14"/>
-    </row>
-    <row r="15" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="G15"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-      <c r="Y15"/>
-      <c r="Z15"/>
-      <c r="AA15"/>
-      <c r="AB15"/>
-      <c r="AD15"/>
-    </row>
-    <row r="16" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="G16"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AD16"/>
-    </row>
-    <row r="17" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-      <c r="Y17"/>
-      <c r="Z17"/>
-      <c r="AA17"/>
-      <c r="AB17"/>
-      <c r="AD17"/>
-    </row>
-    <row r="18" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="C18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="G18"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-      <c r="O18"/>
-      <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18"/>
-      <c r="S18"/>
-      <c r="T18"/>
-      <c r="U18"/>
-      <c r="V18"/>
-      <c r="W18"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="G19"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
-      <c r="O19"/>
-      <c r="P19"/>
-      <c r="Q19"/>
-      <c r="R19"/>
-      <c r="S19"/>
-      <c r="T19"/>
-      <c r="U19"/>
-      <c r="V19"/>
-      <c r="W19"/>
-      <c r="X19"/>
-      <c r="Y19"/>
-      <c r="Z19"/>
-      <c r="AA19"/>
-      <c r="AB19"/>
-      <c r="AD19"/>
-    </row>
-    <row r="20" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="G20"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20"/>
-      <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20"/>
-      <c r="O20"/>
-      <c r="P20"/>
-      <c r="Q20"/>
-      <c r="R20"/>
-      <c r="S20"/>
-      <c r="T20"/>
-      <c r="U20"/>
-      <c r="V20"/>
-      <c r="W20"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="G21"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21"/>
-      <c r="L21"/>
-      <c r="M21"/>
-      <c r="N21"/>
-      <c r="O21"/>
-      <c r="P21"/>
-      <c r="Q21"/>
-      <c r="R21"/>
-      <c r="S21"/>
-      <c r="T21"/>
-      <c r="U21"/>
-      <c r="V21"/>
-      <c r="W21"/>
-      <c r="X21"/>
-      <c r="Y21"/>
-      <c r="Z21"/>
-      <c r="AA21"/>
-      <c r="AB21"/>
-      <c r="AD21"/>
-    </row>
-    <row r="22" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22"/>
-      <c r="L22"/>
-      <c r="M22"/>
-      <c r="N22"/>
-      <c r="O22"/>
-      <c r="P22"/>
-      <c r="Q22"/>
-      <c r="R22"/>
-      <c r="S22"/>
-      <c r="T22"/>
-      <c r="U22"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23"/>
-      <c r="L23"/>
-      <c r="M23"/>
-      <c r="N23"/>
-      <c r="O23"/>
-      <c r="P23"/>
-      <c r="Q23"/>
-      <c r="R23"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-      <c r="Y23"/>
-      <c r="Z23"/>
-      <c r="AA23"/>
-      <c r="AB23"/>
-      <c r="AD23"/>
-    </row>
-    <row r="24" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="C24"/>
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24"/>
-      <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="C25"/>
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AD25"/>
-    </row>
-    <row r="26" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="G26"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26"/>
-      <c r="L26"/>
-      <c r="M26"/>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AD27"/>
-    </row>
-    <row r="28" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AD28"/>
-    </row>
-    <row r="29" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="G29"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29"/>
-      <c r="L29"/>
-      <c r="M29"/>
-      <c r="N29"/>
-      <c r="O29"/>
-      <c r="P29"/>
-      <c r="Q29"/>
-      <c r="R29"/>
-      <c r="S29"/>
-      <c r="T29"/>
-      <c r="U29"/>
-      <c r="V29"/>
-      <c r="W29"/>
-      <c r="X29"/>
-      <c r="Y29"/>
-      <c r="Z29"/>
-      <c r="AA29"/>
-      <c r="AB29"/>
-      <c r="AD29"/>
-    </row>
-    <row r="30" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="C30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="G30"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30"/>
-      <c r="L30"/>
-      <c r="M30"/>
-      <c r="N30"/>
-      <c r="O30"/>
-      <c r="P30"/>
-      <c r="Q30"/>
-      <c r="R30"/>
-      <c r="S30"/>
-      <c r="T30"/>
-      <c r="U30"/>
-      <c r="V30"/>
-      <c r="W30"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AD30"/>
-    </row>
-    <row r="31" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31"/>
-      <c r="L31"/>
-      <c r="M31"/>
-      <c r="N31"/>
-      <c r="O31"/>
-      <c r="P31"/>
-      <c r="Q31"/>
-      <c r="R31"/>
-      <c r="S31"/>
-      <c r="T31"/>
-      <c r="U31"/>
-      <c r="V31"/>
-      <c r="W31"/>
-      <c r="X31"/>
-      <c r="Y31"/>
-      <c r="Z31"/>
-      <c r="AA31"/>
-      <c r="AB31"/>
-      <c r="AD31"/>
-    </row>
-    <row r="32" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32"/>
-      <c r="L32"/>
-      <c r="M32"/>
-      <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32"/>
-      <c r="Q32"/>
-      <c r="R32"/>
-      <c r="S32"/>
-      <c r="T32"/>
-      <c r="U32"/>
-      <c r="V32"/>
-      <c r="W32"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33"/>
-      <c r="G33"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33"/>
-      <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33"/>
-      <c r="O33"/>
-      <c r="P33"/>
-      <c r="Q33"/>
-      <c r="R33"/>
-      <c r="S33"/>
-      <c r="T33"/>
-      <c r="U33"/>
-      <c r="V33"/>
-      <c r="W33"/>
-      <c r="X33"/>
-      <c r="Y33"/>
-      <c r="Z33"/>
-      <c r="AA33"/>
-      <c r="AB33"/>
-      <c r="AD33"/>
-    </row>
-    <row r="34" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34"/>
-      <c r="L34"/>
-      <c r="M34"/>
-      <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34"/>
-      <c r="Q34"/>
-      <c r="R34"/>
-      <c r="S34"/>
-      <c r="T34"/>
-      <c r="U34"/>
-      <c r="V34"/>
-      <c r="W34"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AD34"/>
-    </row>
-    <row r="35" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35"/>
-      <c r="G35"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35"/>
-      <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35"/>
-      <c r="O35"/>
-      <c r="P35"/>
-      <c r="Q35"/>
-      <c r="R35"/>
-      <c r="S35"/>
-      <c r="T35"/>
-      <c r="U35"/>
-      <c r="V35"/>
-      <c r="W35"/>
-      <c r="X35"/>
-      <c r="Y35"/>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
-      <c r="AD35"/>
-    </row>
-    <row r="36" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
-      <c r="Y36"/>
-      <c r="Z36"/>
-      <c r="AA36"/>
-      <c r="AB36"/>
-      <c r="AD36"/>
-    </row>
-    <row r="37" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37"/>
-      <c r="G37"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
-      <c r="Y37"/>
-      <c r="Z37"/>
-      <c r="AA37"/>
-      <c r="AB37"/>
-      <c r="AD37"/>
-    </row>
-    <row r="38" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38"/>
-      <c r="AB38"/>
-      <c r="AD38"/>
-    </row>
-    <row r="39" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
-      <c r="AB39"/>
-      <c r="AD39"/>
-    </row>
-    <row r="40" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-      <c r="Y40"/>
-      <c r="Z40"/>
-      <c r="AA40"/>
-      <c r="AB40"/>
-      <c r="AD40"/>
-    </row>
-    <row r="41" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="C41"/>
-      <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41"/>
-      <c r="L41"/>
-      <c r="M41"/>
-      <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41"/>
-      <c r="Q41"/>
-      <c r="R41"/>
-      <c r="S41"/>
-      <c r="T41"/>
-      <c r="U41"/>
-      <c r="V41"/>
-      <c r="W41"/>
-      <c r="X41"/>
-      <c r="Y41"/>
-      <c r="Z41"/>
-      <c r="AA41"/>
-      <c r="AB41"/>
-      <c r="AD41"/>
-    </row>
-    <row r="42" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42"/>
-      <c r="AB42"/>
-      <c r="AD42"/>
-    </row>
-    <row r="43" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43"/>
-      <c r="G43"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43"/>
-      <c r="L43"/>
-      <c r="M43"/>
-      <c r="N43"/>
-      <c r="O43"/>
-      <c r="P43"/>
-      <c r="Q43"/>
-      <c r="R43"/>
-      <c r="S43"/>
-      <c r="T43"/>
-      <c r="U43"/>
-      <c r="V43"/>
-      <c r="W43"/>
-      <c r="X43"/>
-      <c r="Y43"/>
-      <c r="Z43"/>
-      <c r="AA43"/>
-      <c r="AB43"/>
-      <c r="AD43"/>
-    </row>
-    <row r="44" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44"/>
-      <c r="L44"/>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44"/>
-      <c r="S44"/>
-      <c r="T44"/>
-      <c r="U44"/>
-      <c r="V44"/>
-      <c r="W44"/>
-      <c r="X44"/>
-      <c r="Y44"/>
-      <c r="Z44"/>
-      <c r="AA44"/>
-      <c r="AB44"/>
-      <c r="AD44"/>
-    </row>
-    <row r="45" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45"/>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45"/>
-      <c r="S45"/>
-      <c r="T45"/>
-      <c r="U45"/>
-      <c r="V45"/>
-      <c r="W45"/>
-      <c r="X45"/>
-      <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45"/>
-      <c r="AD45"/>
-    </row>
-    <row r="46" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46"/>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46"/>
-      <c r="R46"/>
-      <c r="S46"/>
-      <c r="T46"/>
-      <c r="U46"/>
-      <c r="V46"/>
-      <c r="W46"/>
-      <c r="X46"/>
-      <c r="Y46"/>
-      <c r="Z46"/>
-      <c r="AA46"/>
-      <c r="AB46"/>
-      <c r="AD46"/>
-    </row>
-    <row r="47" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="C47"/>
-      <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47"/>
-      <c r="G47"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47"/>
-      <c r="L47"/>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47"/>
-      <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47"/>
-      <c r="S47"/>
-      <c r="T47"/>
-      <c r="U47"/>
-      <c r="V47"/>
-      <c r="W47"/>
-      <c r="X47"/>
-      <c r="Y47"/>
-      <c r="Z47"/>
-      <c r="AA47"/>
-      <c r="AB47"/>
-      <c r="AD47"/>
-    </row>
-    <row r="48" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48"/>
-      <c r="L48"/>
-      <c r="M48"/>
-      <c r="N48"/>
-      <c r="O48"/>
-      <c r="P48"/>
-      <c r="Q48"/>
-      <c r="R48"/>
-      <c r="S48"/>
-      <c r="T48"/>
-      <c r="U48"/>
-      <c r="V48"/>
-      <c r="W48"/>
-      <c r="X48"/>
-      <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
-      <c r="AB48"/>
-      <c r="AD48"/>
-    </row>
-    <row r="49" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49"/>
-      <c r="G49"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49"/>
-      <c r="L49"/>
-      <c r="M49"/>
-      <c r="N49"/>
-      <c r="O49"/>
-      <c r="P49"/>
-      <c r="Q49"/>
-      <c r="R49"/>
-      <c r="S49"/>
-      <c r="T49"/>
-      <c r="U49"/>
-      <c r="V49"/>
-      <c r="W49"/>
-      <c r="X49"/>
-      <c r="Y49"/>
-      <c r="Z49"/>
-      <c r="AA49"/>
-      <c r="AB49"/>
-      <c r="AD49"/>
-    </row>
-    <row r="50" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50"/>
-      <c r="L50"/>
-      <c r="M50"/>
-      <c r="N50"/>
-      <c r="O50"/>
-      <c r="P50"/>
-      <c r="Q50"/>
-      <c r="R50"/>
-      <c r="S50"/>
-      <c r="T50"/>
-      <c r="U50"/>
-      <c r="V50"/>
-      <c r="W50"/>
-      <c r="X50"/>
-      <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
-      <c r="AB50"/>
-      <c r="AD50"/>
-    </row>
-    <row r="51" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51"/>
-      <c r="G51"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51"/>
-      <c r="L51"/>
-      <c r="M51"/>
-      <c r="N51"/>
-      <c r="O51"/>
-      <c r="P51"/>
-      <c r="Q51"/>
-      <c r="R51"/>
-      <c r="S51"/>
-      <c r="T51"/>
-      <c r="U51"/>
-      <c r="V51"/>
-      <c r="W51"/>
-      <c r="X51"/>
-      <c r="Y51"/>
-      <c r="Z51"/>
-      <c r="AA51"/>
-      <c r="AB51"/>
-      <c r="AD51"/>
-    </row>
-    <row r="52" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AD52"/>
-    </row>
-    <row r="53" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53"/>
-      <c r="L53"/>
-      <c r="M53"/>
-      <c r="N53"/>
-      <c r="O53"/>
-      <c r="P53"/>
-      <c r="Q53"/>
-      <c r="R53"/>
-      <c r="S53"/>
-      <c r="T53"/>
-      <c r="U53"/>
-      <c r="V53"/>
-      <c r="W53"/>
-      <c r="X53"/>
-      <c r="Y53"/>
-      <c r="Z53"/>
-      <c r="AA53"/>
-      <c r="AB53"/>
-      <c r="AD53"/>
-    </row>
-    <row r="54" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54"/>
-      <c r="G54"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54"/>
-      <c r="L54"/>
-      <c r="M54"/>
-      <c r="N54"/>
-      <c r="O54"/>
-      <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54"/>
-      <c r="S54"/>
-      <c r="T54"/>
-      <c r="U54"/>
-      <c r="V54"/>
-      <c r="W54"/>
-      <c r="X54"/>
-      <c r="Y54"/>
-      <c r="Z54"/>
-      <c r="AA54"/>
-      <c r="AB54"/>
-      <c r="AD54"/>
-    </row>
-    <row r="55" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55"/>
-      <c r="L55"/>
-      <c r="M55"/>
-      <c r="N55"/>
-      <c r="O55"/>
-      <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55"/>
-      <c r="S55"/>
-      <c r="T55"/>
-      <c r="U55"/>
-      <c r="V55"/>
-      <c r="W55"/>
-      <c r="X55"/>
-      <c r="Y55"/>
-      <c r="Z55"/>
-      <c r="AA55"/>
-      <c r="AB55"/>
-      <c r="AD55"/>
-    </row>
-    <row r="56" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56"/>
-      <c r="G56"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56"/>
-      <c r="L56"/>
-      <c r="M56"/>
-      <c r="N56"/>
-      <c r="O56"/>
-      <c r="P56"/>
-      <c r="Q56"/>
-      <c r="R56"/>
-      <c r="S56"/>
-      <c r="T56"/>
-      <c r="U56"/>
-      <c r="V56"/>
-      <c r="W56"/>
-      <c r="X56"/>
-      <c r="Y56"/>
-      <c r="Z56"/>
-      <c r="AA56"/>
-      <c r="AB56"/>
-      <c r="AD56"/>
-    </row>
-    <row r="57" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57"/>
-      <c r="L57"/>
-      <c r="M57"/>
-      <c r="N57"/>
-      <c r="O57"/>
-      <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57"/>
-      <c r="S57"/>
-      <c r="T57"/>
-      <c r="U57"/>
-      <c r="V57"/>
-      <c r="W57"/>
-      <c r="X57"/>
-      <c r="Y57"/>
-      <c r="Z57"/>
-      <c r="AA57"/>
-      <c r="AB57"/>
-      <c r="AD57"/>
-    </row>
-    <row r="58" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
-      <c r="G58"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58"/>
-      <c r="L58"/>
-      <c r="M58"/>
-      <c r="N58"/>
-      <c r="O58"/>
-      <c r="P58"/>
-      <c r="Q58"/>
-      <c r="R58"/>
-      <c r="S58"/>
-      <c r="T58"/>
-      <c r="U58"/>
-      <c r="V58"/>
-      <c r="W58"/>
-      <c r="X58"/>
-      <c r="Y58"/>
-      <c r="Z58"/>
-      <c r="AA58"/>
-      <c r="AB58"/>
-      <c r="AD58"/>
-    </row>
-    <row r="59" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59"/>
-      <c r="G59"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59"/>
-      <c r="L59"/>
-      <c r="M59"/>
-      <c r="N59"/>
-      <c r="O59"/>
-      <c r="P59"/>
-      <c r="Q59"/>
-      <c r="R59"/>
-      <c r="S59"/>
-      <c r="T59"/>
-      <c r="U59"/>
-      <c r="V59"/>
-      <c r="W59"/>
-      <c r="X59"/>
-      <c r="Y59"/>
-      <c r="Z59"/>
-      <c r="AA59"/>
-      <c r="AB59"/>
-      <c r="AD59"/>
-    </row>
-    <row r="60" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60"/>
-      <c r="G60"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60"/>
-      <c r="L60"/>
-      <c r="M60"/>
-      <c r="N60"/>
-      <c r="O60"/>
-      <c r="P60"/>
-      <c r="Q60"/>
-      <c r="R60"/>
-      <c r="S60"/>
-      <c r="T60"/>
-      <c r="U60"/>
-      <c r="V60"/>
-      <c r="W60"/>
-      <c r="X60"/>
-      <c r="Y60"/>
-      <c r="Z60"/>
-      <c r="AA60"/>
-      <c r="AB60"/>
-      <c r="AD60"/>
-    </row>
-    <row r="61" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61"/>
-      <c r="L61"/>
-      <c r="M61"/>
-      <c r="N61"/>
-      <c r="O61"/>
-      <c r="P61"/>
-      <c r="Q61"/>
-      <c r="R61"/>
-      <c r="S61"/>
-      <c r="T61"/>
-      <c r="U61"/>
-      <c r="V61"/>
-      <c r="W61"/>
-      <c r="X61"/>
-      <c r="Y61"/>
-      <c r="Z61"/>
-      <c r="AA61"/>
-      <c r="AB61"/>
-      <c r="AD61"/>
-    </row>
-    <row r="62" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-      <c r="O62"/>
-      <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62"/>
-      <c r="S62"/>
-      <c r="T62"/>
-      <c r="U62"/>
-      <c r="V62"/>
-      <c r="W62"/>
-      <c r="X62"/>
-      <c r="Y62"/>
-      <c r="Z62"/>
-      <c r="AA62"/>
-      <c r="AB62"/>
-      <c r="AD62"/>
-    </row>
-    <row r="63" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63"/>
-      <c r="P63"/>
-      <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63"/>
-      <c r="T63"/>
-      <c r="U63"/>
-      <c r="V63"/>
-      <c r="W63"/>
-      <c r="X63"/>
-      <c r="Y63"/>
-      <c r="Z63"/>
-      <c r="AA63"/>
-      <c r="AB63"/>
-      <c r="AD63"/>
-    </row>
-    <row r="64" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64"/>
-      <c r="B64"/>
-      <c r="C64"/>
-      <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64"/>
-      <c r="G64"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64"/>
-      <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64"/>
-      <c r="O64"/>
-      <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64"/>
-      <c r="S64"/>
-      <c r="T64"/>
-      <c r="U64"/>
-      <c r="V64"/>
-      <c r="W64"/>
-      <c r="X64"/>
-      <c r="Y64"/>
-      <c r="Z64"/>
-      <c r="AA64"/>
-      <c r="AB64"/>
-      <c r="AD64"/>
-    </row>
-    <row r="65" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65"/>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65"/>
-      <c r="L65"/>
-      <c r="M65"/>
-      <c r="N65"/>
-      <c r="O65"/>
-      <c r="P65"/>
-      <c r="Q65"/>
-      <c r="R65"/>
-      <c r="S65"/>
-      <c r="T65"/>
-      <c r="U65"/>
-      <c r="V65"/>
-      <c r="W65"/>
-      <c r="X65"/>
-      <c r="Y65"/>
-      <c r="Z65"/>
-      <c r="AA65"/>
-      <c r="AB65"/>
-      <c r="AD65"/>
-    </row>
-    <row r="66" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66"/>
-      <c r="B66"/>
-      <c r="C66"/>
-      <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-      <c r="O66"/>
-      <c r="P66"/>
-      <c r="Q66"/>
-      <c r="R66"/>
-      <c r="S66"/>
-      <c r="T66"/>
-      <c r="U66"/>
-      <c r="V66"/>
-      <c r="W66"/>
-      <c r="X66"/>
-      <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
-      <c r="AD66"/>
-    </row>
-    <row r="67" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67"/>
-      <c r="B67"/>
-      <c r="C67"/>
-      <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-      <c r="O67"/>
-      <c r="P67"/>
-      <c r="Q67"/>
-      <c r="R67"/>
-      <c r="S67"/>
-      <c r="T67"/>
-      <c r="U67"/>
-      <c r="V67"/>
-      <c r="W67"/>
-      <c r="X67"/>
-      <c r="Y67"/>
-      <c r="Z67"/>
-      <c r="AA67"/>
-      <c r="AB67"/>
-      <c r="AD67"/>
-    </row>
-    <row r="68" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68"/>
-      <c r="B68"/>
-      <c r="C68"/>
-      <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68"/>
-      <c r="G68"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68"/>
-      <c r="L68"/>
-      <c r="M68"/>
-      <c r="N68"/>
-      <c r="O68"/>
-      <c r="P68"/>
-      <c r="Q68"/>
-      <c r="R68"/>
-      <c r="S68"/>
-      <c r="T68"/>
-      <c r="U68"/>
-      <c r="V68"/>
-      <c r="W68"/>
-      <c r="X68"/>
-      <c r="Y68"/>
-      <c r="Z68"/>
-      <c r="AA68"/>
-      <c r="AB68"/>
-      <c r="AD68"/>
-    </row>
-    <row r="69" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69"/>
-      <c r="B69"/>
-      <c r="C69"/>
-      <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69"/>
-      <c r="G69"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69"/>
-      <c r="L69" s="6"/>
-      <c r="M69"/>
-      <c r="N69"/>
-      <c r="O69"/>
-      <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69"/>
-      <c r="S69"/>
-      <c r="T69"/>
-      <c r="U69"/>
-      <c r="V69"/>
-      <c r="W69"/>
-      <c r="X69"/>
-      <c r="Y69"/>
-      <c r="Z69"/>
-      <c r="AA69"/>
-      <c r="AB69"/>
-      <c r="AD69"/>
-    </row>
-    <row r="70" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70"/>
-      <c r="B70"/>
-      <c r="C70"/>
-      <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70"/>
-      <c r="L70" s="6"/>
-      <c r="M70"/>
-      <c r="N70"/>
-      <c r="O70"/>
-      <c r="P70"/>
-      <c r="Q70"/>
-      <c r="R70"/>
-      <c r="S70"/>
-      <c r="T70"/>
-      <c r="U70"/>
-      <c r="V70"/>
-      <c r="W70"/>
-      <c r="X70"/>
-      <c r="Y70"/>
-      <c r="Z70"/>
-      <c r="AA70"/>
-      <c r="AB70"/>
-      <c r="AD70"/>
-    </row>
-    <row r="71" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71"/>
-      <c r="B71"/>
-      <c r="C71"/>
-      <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71"/>
-      <c r="L71"/>
-      <c r="M71"/>
-      <c r="N71"/>
-      <c r="O71"/>
-      <c r="P71"/>
-      <c r="Q71"/>
-      <c r="R71"/>
-      <c r="S71"/>
-      <c r="T71"/>
-      <c r="U71"/>
-      <c r="V71"/>
-      <c r="W71"/>
-      <c r="X71"/>
-      <c r="Y71"/>
-      <c r="Z71"/>
-      <c r="AA71"/>
-      <c r="AB71"/>
-      <c r="AD71"/>
-    </row>
-    <row r="72" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72"/>
-      <c r="B72"/>
-      <c r="C72"/>
-      <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72"/>
-      <c r="L72"/>
-      <c r="M72"/>
-      <c r="N72"/>
-      <c r="O72"/>
-      <c r="P72"/>
-      <c r="Q72"/>
-      <c r="R72"/>
-      <c r="S72"/>
-      <c r="T72"/>
-      <c r="U72"/>
-      <c r="V72"/>
-      <c r="W72"/>
-      <c r="X72"/>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
-      <c r="AD72"/>
-    </row>
-    <row r="73" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73"/>
-      <c r="B73"/>
-      <c r="C73"/>
-      <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73"/>
-      <c r="G73"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="5"/>
-      <c r="K73"/>
-      <c r="L73"/>
-      <c r="M73"/>
-      <c r="N73"/>
-      <c r="O73"/>
-      <c r="P73"/>
-      <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73"/>
-      <c r="T73"/>
-      <c r="U73"/>
-      <c r="V73"/>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
-      <c r="AA73"/>
-      <c r="AB73"/>
-      <c r="AD73"/>
-    </row>
-    <row r="74" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74"/>
-      <c r="G74"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74"/>
-      <c r="L74"/>
-      <c r="M74"/>
-      <c r="N74"/>
-      <c r="O74"/>
-      <c r="P74"/>
-      <c r="Q74"/>
-      <c r="R74"/>
-      <c r="S74"/>
-      <c r="T74"/>
-      <c r="U74"/>
-      <c r="V74"/>
-      <c r="W74"/>
-      <c r="X74"/>
-      <c r="Y74"/>
-      <c r="Z74"/>
-      <c r="AA74"/>
-      <c r="AB74"/>
-      <c r="AD74"/>
-    </row>
-    <row r="75" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75"/>
-      <c r="L75"/>
-      <c r="M75"/>
-      <c r="N75"/>
-      <c r="O75"/>
-      <c r="P75"/>
-      <c r="Q75"/>
-      <c r="R75"/>
-      <c r="S75"/>
-      <c r="T75"/>
-      <c r="U75"/>
-      <c r="V75"/>
-      <c r="W75"/>
-      <c r="X75"/>
-      <c r="Y75"/>
-      <c r="Z75"/>
-      <c r="AA75"/>
-      <c r="AB75"/>
-      <c r="AD75"/>
-    </row>
-    <row r="76" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76"/>
-      <c r="B76"/>
-      <c r="C76"/>
-      <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76"/>
-      <c r="G76"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76"/>
-      <c r="L76"/>
-      <c r="M76"/>
-      <c r="N76"/>
-      <c r="O76"/>
-      <c r="P76"/>
-      <c r="Q76"/>
-      <c r="R76"/>
-      <c r="S76"/>
-      <c r="T76"/>
-      <c r="U76"/>
-      <c r="V76"/>
-      <c r="W76"/>
-      <c r="X76"/>
-      <c r="Y76"/>
-      <c r="Z76"/>
-      <c r="AA76"/>
-      <c r="AB76"/>
-      <c r="AD76"/>
-    </row>
-    <row r="77" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77"/>
-      <c r="B77"/>
-      <c r="C77"/>
-      <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77"/>
-      <c r="G77"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77"/>
-      <c r="L77"/>
-      <c r="M77"/>
-      <c r="N77"/>
-      <c r="O77"/>
-      <c r="P77"/>
-      <c r="Q77"/>
-      <c r="R77"/>
-      <c r="S77"/>
-      <c r="T77"/>
-      <c r="U77"/>
-      <c r="V77"/>
-      <c r="W77"/>
-      <c r="X77"/>
-      <c r="Y77"/>
-      <c r="Z77"/>
-      <c r="AA77"/>
-      <c r="AB77"/>
-      <c r="AD77"/>
-    </row>
-    <row r="78" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78"/>
-      <c r="B78"/>
-      <c r="C78"/>
-      <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78"/>
-      <c r="L78"/>
-      <c r="M78"/>
-      <c r="N78"/>
-      <c r="O78"/>
-      <c r="P78"/>
-      <c r="Q78"/>
-      <c r="R78"/>
-      <c r="S78"/>
-      <c r="T78"/>
-      <c r="U78"/>
-      <c r="V78"/>
-      <c r="W78"/>
-      <c r="X78"/>
-      <c r="Y78"/>
-      <c r="Z78"/>
-      <c r="AA78"/>
-      <c r="AB78"/>
-      <c r="AD78"/>
-    </row>
-    <row r="79" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79"/>
-      <c r="B79"/>
-      <c r="C79"/>
-      <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79"/>
-      <c r="G79"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79"/>
-      <c r="L79"/>
-      <c r="M79"/>
-      <c r="N79"/>
-      <c r="O79"/>
-      <c r="P79"/>
-      <c r="Q79"/>
-      <c r="R79"/>
-      <c r="S79"/>
-      <c r="T79"/>
-      <c r="U79"/>
-      <c r="V79"/>
-      <c r="W79"/>
-      <c r="X79"/>
-      <c r="Y79"/>
-      <c r="Z79"/>
-      <c r="AA79"/>
-      <c r="AB79"/>
-      <c r="AD79"/>
-    </row>
-    <row r="80" spans="1:30" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80"/>
-      <c r="L80"/>
-      <c r="M80"/>
-      <c r="N80"/>
-      <c r="O80"/>
-      <c r="P80"/>
-      <c r="Q80"/>
-      <c r="R80"/>
-      <c r="S80"/>
-      <c r="T80"/>
-      <c r="U80"/>
-      <c r="V80"/>
-      <c r="W80"/>
-      <c r="X80"/>
-      <c r="Y80"/>
-      <c r="Z80"/>
-      <c r="AA80"/>
-      <c r="AB80"/>
-      <c r="AD80"/>
-    </row>
-    <row r="81" spans="1:31" s="1" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
-      <c r="K81"/>
-      <c r="L81"/>
-      <c r="M81"/>
-      <c r="N81"/>
-      <c r="O81"/>
-      <c r="P81"/>
-      <c r="Q81"/>
-      <c r="R81"/>
-      <c r="S81"/>
-      <c r="T81"/>
-      <c r="U81"/>
-      <c r="V81"/>
-      <c r="W81"/>
-      <c r="X81"/>
-      <c r="Y81"/>
-      <c r="Z81"/>
-      <c r="AA81"/>
-      <c r="AB81"/>
-      <c r="AD81"/>
-    </row>
-    <row r="82" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A82" s="7"/>
-      <c r="B82" s="7"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="16"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
-      <c r="Q82" s="7"/>
-      <c r="R82" s="7"/>
-      <c r="S82" s="7"/>
-      <c r="T82" s="7"/>
-      <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
-      <c r="AB82" s="7"/>
-      <c r="AC82" s="18"/>
-      <c r="AD82" s="19"/>
-      <c r="AE82" s="18"/>
-    </row>
-    <row r="83" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A83" s="7"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="16"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
-      <c r="Q83" s="7"/>
-      <c r="R83" s="7"/>
-      <c r="S83" s="7"/>
-      <c r="T83" s="7"/>
-      <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
-      <c r="X83" s="7"/>
-      <c r="Y83" s="7"/>
-      <c r="Z83" s="7"/>
-      <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="18"/>
-      <c r="AD83" s="19"/>
-      <c r="AE83" s="18"/>
-    </row>
-    <row r="84" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A84" s="7"/>
-      <c r="B84" s="7"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="7"/>
-      <c r="E84" s="7"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="16"/>
-      <c r="I84" s="16"/>
-      <c r="J84" s="16"/>
-      <c r="K84" s="17"/>
-      <c r="L84" s="16"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
-      <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
-      <c r="X84" s="7"/>
-      <c r="Y84" s="7"/>
-      <c r="Z84" s="7"/>
-      <c r="AA84" s="7"/>
-      <c r="AB84" s="7"/>
-      <c r="AC84" s="18"/>
-      <c r="AD84" s="19"/>
-      <c r="AE84" s="18"/>
-    </row>
-    <row r="85" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A85" s="7"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="16"/>
-      <c r="I85" s="16"/>
-      <c r="J85" s="16"/>
-      <c r="K85" s="17"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
-      <c r="Q85" s="7"/>
-      <c r="R85" s="7"/>
-      <c r="S85" s="7"/>
-      <c r="T85" s="7"/>
-      <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
-      <c r="X85" s="7"/>
-      <c r="Y85" s="7"/>
-      <c r="Z85" s="7"/>
-      <c r="AA85" s="7"/>
-      <c r="AB85" s="7"/>
-      <c r="AC85" s="18"/>
-      <c r="AD85" s="19"/>
-      <c r="AE85" s="18"/>
-    </row>
-    <row r="86" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="7"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="16"/>
-      <c r="I86" s="16"/>
-      <c r="J86" s="16"/>
-      <c r="K86" s="17"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
-      <c r="Q86" s="7"/>
-      <c r="R86" s="7"/>
-      <c r="S86" s="7"/>
-      <c r="T86" s="7"/>
-      <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
-      <c r="X86" s="7"/>
-      <c r="Y86" s="7"/>
-      <c r="Z86" s="7"/>
-      <c r="AA86" s="7"/>
-      <c r="AB86" s="7"/>
-      <c r="AC86" s="18"/>
-      <c r="AD86" s="19"/>
-      <c r="AE86" s="18"/>
-    </row>
-    <row r="87" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="7"/>
-      <c r="B87" s="7"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="7"/>
-      <c r="E87" s="7"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="16"/>
-      <c r="I87" s="16"/>
-      <c r="J87" s="16"/>
-      <c r="K87" s="17"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
-      <c r="Q87" s="7"/>
-      <c r="R87" s="7"/>
-      <c r="S87" s="7"/>
-      <c r="T87" s="7"/>
-      <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
-      <c r="X87" s="7"/>
-      <c r="Y87" s="7"/>
-      <c r="Z87" s="7"/>
-      <c r="AA87" s="7"/>
-      <c r="AB87" s="7"/>
-      <c r="AC87" s="18"/>
-      <c r="AD87" s="19"/>
-      <c r="AE87" s="18"/>
-    </row>
-    <row r="88" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A88" s="7"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="7"/>
-      <c r="E88" s="7"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
-      <c r="P88" s="7"/>
-      <c r="Q88" s="7"/>
-      <c r="R88" s="7"/>
-      <c r="S88" s="7"/>
-      <c r="T88" s="7"/>
-      <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
-      <c r="X88" s="7"/>
-      <c r="Y88" s="7"/>
-      <c r="Z88" s="7"/>
-      <c r="AA88" s="7"/>
-      <c r="AB88" s="7"/>
-      <c r="AC88" s="18"/>
-      <c r="AD88" s="19"/>
-      <c r="AE88" s="18"/>
-    </row>
-    <row r="89" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="7"/>
-      <c r="B89" s="7"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="7"/>
-      <c r="E89" s="7"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="16"/>
-      <c r="I89" s="16"/>
-      <c r="J89" s="16"/>
-      <c r="K89" s="17"/>
-      <c r="L89" s="16"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
-      <c r="Q89" s="7"/>
-      <c r="R89" s="7"/>
-      <c r="S89" s="7"/>
-      <c r="T89" s="7"/>
-      <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
-      <c r="X89" s="7"/>
-      <c r="Y89" s="7"/>
-      <c r="Z89" s="7"/>
-      <c r="AA89" s="7"/>
-      <c r="AB89" s="7"/>
-      <c r="AC89" s="18"/>
-      <c r="AD89" s="19"/>
-      <c r="AE89" s="18"/>
-    </row>
-    <row r="90" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A90" s="7"/>
-      <c r="B90" s="7"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="16"/>
-      <c r="I90" s="16"/>
-      <c r="J90" s="16"/>
-      <c r="K90" s="17"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
-      <c r="Y90" s="7"/>
-      <c r="Z90" s="7"/>
-      <c r="AA90" s="7"/>
-      <c r="AB90" s="7"/>
-      <c r="AC90" s="18"/>
-      <c r="AD90" s="19"/>
-      <c r="AE90" s="18"/>
-    </row>
-    <row r="91" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="7"/>
-      <c r="B91" s="7"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="16"/>
-      <c r="I91" s="16"/>
-      <c r="J91" s="16"/>
-      <c r="K91" s="17"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
-      <c r="X91" s="7"/>
-      <c r="Y91" s="7"/>
-      <c r="Z91" s="7"/>
-      <c r="AA91" s="7"/>
-      <c r="AB91" s="7"/>
-      <c r="AC91" s="18"/>
-      <c r="AD91" s="19"/>
-      <c r="AE91" s="18"/>
-    </row>
-    <row r="92" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="7"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="16"/>
-      <c r="I92" s="16"/>
-      <c r="J92" s="16"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
-      <c r="Q92" s="7"/>
-      <c r="R92" s="7"/>
-      <c r="S92" s="7"/>
-      <c r="T92" s="7"/>
-      <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
-      <c r="X92" s="7"/>
-      <c r="Y92" s="7"/>
-      <c r="Z92" s="7"/>
-      <c r="AA92" s="7"/>
-      <c r="AB92" s="7"/>
-      <c r="AC92" s="18"/>
-      <c r="AD92" s="19"/>
-      <c r="AE92" s="18"/>
-    </row>
-    <row r="93" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="7"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="20"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="20"/>
-      <c r="I93" s="16"/>
-      <c r="J93" s="16"/>
-      <c r="K93" s="17"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="22"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
-      <c r="Q93" s="7"/>
-      <c r="R93" s="7"/>
-      <c r="S93" s="7"/>
-      <c r="T93" s="7"/>
-      <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
-      <c r="X93" s="7"/>
-      <c r="Y93" s="7"/>
-      <c r="Z93" s="7"/>
-      <c r="AA93" s="7"/>
-      <c r="AB93" s="7"/>
-      <c r="AC93" s="18"/>
-      <c r="AD93" s="19"/>
-      <c r="AE93" s="18"/>
-    </row>
-    <row r="94" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="7"/>
-      <c r="B94" s="7"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="16"/>
-      <c r="J94" s="16"/>
-      <c r="K94" s="17"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
-      <c r="Q94" s="7"/>
-      <c r="R94" s="7"/>
-      <c r="S94" s="7"/>
-      <c r="T94" s="7"/>
-      <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
-      <c r="X94" s="7"/>
-      <c r="Y94" s="7"/>
-      <c r="Z94" s="7"/>
-      <c r="AA94" s="7"/>
-      <c r="AB94" s="7"/>
-      <c r="AC94" s="18"/>
-      <c r="AD94" s="19"/>
-      <c r="AE94" s="18"/>
-    </row>
-    <row r="95" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="16"/>
-      <c r="I95" s="16"/>
-      <c r="J95" s="16"/>
-      <c r="K95" s="17"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
-      <c r="Q95" s="7"/>
-      <c r="R95" s="7"/>
-      <c r="S95" s="7"/>
-      <c r="T95" s="7"/>
-      <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
-      <c r="X95" s="7"/>
-      <c r="Y95" s="7"/>
-      <c r="Z95" s="7"/>
-      <c r="AA95" s="7"/>
-      <c r="AB95" s="7"/>
-      <c r="AC95" s="18"/>
-      <c r="AD95" s="19"/>
-      <c r="AE95" s="18"/>
-    </row>
-    <row r="96" spans="1:31" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="16"/>
-      <c r="I96" s="16"/>
-      <c r="J96" s="16"/>
-      <c r="K96" s="17"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
-      <c r="Q96" s="7"/>
-      <c r="R96" s="7"/>
-      <c r="S96" s="7"/>
-      <c r="T96" s="7"/>
-      <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
-      <c r="X96" s="7"/>
-      <c r="Y96" s="7"/>
-      <c r="Z96" s="7"/>
-      <c r="AA96" s="7"/>
-      <c r="AB96" s="7"/>
-      <c r="AC96" s="18"/>
-      <c r="AD96" s="19"/>
-      <c r="AE96" s="18"/>
-    </row>
-    <row r="97" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="7"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="17"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="22"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
-      <c r="Q97" s="7"/>
-      <c r="R97" s="7"/>
-      <c r="S97" s="7"/>
-      <c r="T97" s="7"/>
-      <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
-      <c r="X97" s="7"/>
-      <c r="Y97" s="7"/>
-      <c r="Z97" s="7"/>
-      <c r="AA97" s="7"/>
-      <c r="AB97" s="7"/>
-      <c r="AC97" s="18"/>
-      <c r="AD97" s="19"/>
-      <c r="AE97" s="18"/>
-    </row>
-    <row r="98" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A98" s="7"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="7"/>
-      <c r="E98" s="7"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="17"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
-      <c r="Q98" s="7"/>
-      <c r="R98" s="7"/>
-      <c r="S98" s="7"/>
-      <c r="T98" s="7"/>
-      <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
-      <c r="X98" s="7"/>
-      <c r="Y98" s="7"/>
-      <c r="Z98" s="7"/>
-      <c r="AA98" s="7"/>
-      <c r="AB98" s="7"/>
-      <c r="AC98" s="18"/>
-      <c r="AD98" s="19"/>
-      <c r="AE98" s="18"/>
-    </row>
-    <row r="99" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A99" s="7"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="7"/>
-      <c r="E99" s="7"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="16"/>
-      <c r="I99" s="16"/>
-      <c r="J99" s="16"/>
-      <c r="K99" s="17"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
-      <c r="Q99" s="7"/>
-      <c r="R99" s="7"/>
-      <c r="S99" s="7"/>
-      <c r="T99" s="7"/>
-      <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
-      <c r="X99" s="7"/>
-      <c r="Y99" s="7"/>
-      <c r="Z99" s="7"/>
-      <c r="AA99" s="7"/>
-      <c r="AB99" s="7"/>
-      <c r="AC99" s="18"/>
-      <c r="AD99" s="19"/>
-      <c r="AE99" s="18"/>
-    </row>
-    <row r="100" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A100" s="7"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="7"/>
-      <c r="E100" s="7"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="16"/>
-      <c r="I100" s="16"/>
-      <c r="J100" s="16"/>
-      <c r="K100" s="17"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
-      <c r="R100" s="7"/>
-      <c r="S100" s="7"/>
-      <c r="T100" s="7"/>
-      <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
-      <c r="X100" s="7"/>
-      <c r="Y100" s="7"/>
-      <c r="Z100" s="7"/>
-      <c r="AA100" s="7"/>
-      <c r="AB100" s="7"/>
-      <c r="AC100" s="18"/>
-      <c r="AD100" s="19"/>
-      <c r="AE100" s="18"/>
-    </row>
-    <row r="101" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A101" s="7"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="16"/>
-      <c r="I101" s="16"/>
-      <c r="J101" s="16"/>
-      <c r="K101" s="17"/>
-      <c r="L101" s="16"/>
-      <c r="M101" s="22"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
-      <c r="Y101" s="7"/>
-      <c r="Z101" s="7"/>
-      <c r="AA101" s="7"/>
-      <c r="AB101" s="7"/>
-      <c r="AC101" s="18"/>
-      <c r="AD101" s="19"/>
-      <c r="AE101" s="18"/>
-    </row>
-    <row r="102" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A102" s="7"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="7"/>
-      <c r="E102" s="7"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="16"/>
-      <c r="I102" s="16"/>
-      <c r="J102" s="16"/>
-      <c r="K102" s="17"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
-      <c r="Q102" s="7"/>
-      <c r="R102" s="7"/>
-      <c r="S102" s="7"/>
-      <c r="T102" s="7"/>
-      <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="7"/>
-      <c r="X102" s="7"/>
-      <c r="Y102" s="7"/>
-      <c r="Z102" s="7"/>
-      <c r="AA102" s="7"/>
-      <c r="AB102" s="7"/>
-      <c r="AC102" s="18"/>
-      <c r="AD102" s="19"/>
-      <c r="AE102" s="18"/>
-    </row>
-    <row r="103" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A103" s="7"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="7"/>
-      <c r="E103" s="7"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="16"/>
-      <c r="I103" s="16"/>
-      <c r="J103" s="16"/>
-      <c r="K103" s="17"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
-      <c r="Q103" s="7"/>
-      <c r="R103" s="7"/>
-      <c r="S103" s="7"/>
-      <c r="T103" s="7"/>
-      <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
-      <c r="X103" s="7"/>
-      <c r="Y103" s="7"/>
-      <c r="Z103" s="7"/>
-      <c r="AA103" s="7"/>
-      <c r="AB103" s="7"/>
-      <c r="AC103" s="18"/>
-      <c r="AD103" s="19"/>
-      <c r="AE103" s="18"/>
-    </row>
-    <row r="104" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A104" s="7"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="7"/>
-      <c r="E104" s="7"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="16"/>
-      <c r="I104" s="16"/>
-      <c r="J104" s="16"/>
-      <c r="K104" s="17"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
-      <c r="Q104" s="7"/>
-      <c r="R104" s="7"/>
-      <c r="S104" s="7"/>
-      <c r="T104" s="7"/>
-      <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="7"/>
-      <c r="X104" s="7"/>
-      <c r="Y104" s="7"/>
-      <c r="Z104" s="7"/>
-      <c r="AA104" s="7"/>
-      <c r="AB104" s="7"/>
-      <c r="AC104" s="18"/>
-      <c r="AD104" s="19"/>
-      <c r="AE104" s="18"/>
-    </row>
-    <row r="105" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A105" s="7"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="7"/>
-      <c r="E105" s="7"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="16"/>
-      <c r="I105" s="16"/>
-      <c r="J105" s="16"/>
-      <c r="K105" s="17"/>
-      <c r="L105" s="16"/>
-      <c r="M105" s="22"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
-      <c r="Q105" s="7"/>
-      <c r="R105" s="7"/>
-      <c r="S105" s="7"/>
-      <c r="T105" s="7"/>
-      <c r="U105" s="7"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="7"/>
-      <c r="X105" s="7"/>
-      <c r="Y105" s="7"/>
-      <c r="Z105" s="7"/>
-      <c r="AA105" s="7"/>
-      <c r="AB105" s="7"/>
-      <c r="AC105" s="18"/>
-      <c r="AD105" s="19"/>
-      <c r="AE105" s="18"/>
-    </row>
-    <row r="106" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A106" s="7"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="7"/>
-      <c r="E106" s="7"/>
-      <c r="F106" s="16"/>
-      <c r="G106" s="16"/>
-      <c r="H106" s="16"/>
-      <c r="I106" s="16"/>
-      <c r="J106" s="16"/>
-      <c r="K106" s="17"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
-      <c r="Q106" s="7"/>
-      <c r="R106" s="7"/>
-      <c r="S106" s="7"/>
-      <c r="T106" s="7"/>
-      <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
-      <c r="X106" s="7"/>
-      <c r="Y106" s="7"/>
-      <c r="Z106" s="7"/>
-      <c r="AA106" s="7"/>
-      <c r="AB106" s="7"/>
-      <c r="AC106" s="18"/>
-      <c r="AD106" s="19"/>
-      <c r="AE106" s="18"/>
-    </row>
-    <row r="107" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="7"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="16"/>
-      <c r="G107" s="16"/>
-      <c r="H107" s="16"/>
-      <c r="I107" s="16"/>
-      <c r="J107" s="16"/>
-      <c r="K107" s="17"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
-      <c r="Q107" s="7"/>
-      <c r="R107" s="7"/>
-      <c r="S107" s="7"/>
-      <c r="T107" s="7"/>
-      <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
-      <c r="X107" s="7"/>
-      <c r="Y107" s="7"/>
-      <c r="Z107" s="7"/>
-      <c r="AA107" s="7"/>
-      <c r="AB107" s="7"/>
-      <c r="AC107" s="18"/>
-      <c r="AD107" s="19"/>
-      <c r="AE107" s="18"/>
-    </row>
-    <row r="108" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="7"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="16"/>
-      <c r="H108" s="16"/>
-      <c r="I108" s="16"/>
-      <c r="J108" s="16"/>
-      <c r="K108" s="17"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
-      <c r="Q108" s="7"/>
-      <c r="R108" s="7"/>
-      <c r="S108" s="7"/>
-      <c r="T108" s="7"/>
-      <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
-      <c r="X108" s="7"/>
-      <c r="Y108" s="7"/>
-      <c r="Z108" s="7"/>
-      <c r="AA108" s="7"/>
-      <c r="AB108" s="7"/>
-      <c r="AC108" s="18"/>
-      <c r="AD108" s="19"/>
-      <c r="AE108" s="18"/>
-    </row>
-    <row r="109" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="7"/>
-      <c r="B109" s="18"/>
-      <c r="C109" s="7"/>
-      <c r="D109" s="7"/>
-      <c r="E109" s="7"/>
-      <c r="F109" s="16"/>
-      <c r="G109" s="16"/>
-      <c r="H109" s="16"/>
-      <c r="I109" s="16"/>
-      <c r="J109" s="16"/>
-      <c r="K109" s="17"/>
-      <c r="L109" s="16"/>
-      <c r="M109" s="22"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
-      <c r="Q109" s="7"/>
-      <c r="R109" s="7"/>
-      <c r="S109" s="7"/>
-      <c r="T109" s="7"/>
-      <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
-      <c r="X109" s="7"/>
-      <c r="Y109" s="7"/>
-      <c r="Z109" s="7"/>
-      <c r="AA109" s="7"/>
-      <c r="AB109" s="7"/>
-      <c r="AC109" s="18"/>
-      <c r="AD109" s="19"/>
-      <c r="AE109" s="18"/>
-      <c r="AS109" s="11"/>
-    </row>
-    <row r="110" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="7"/>
-      <c r="B110" s="18"/>
-      <c r="C110" s="7"/>
-      <c r="D110" s="7"/>
-      <c r="E110" s="7"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="16"/>
-      <c r="H110" s="16"/>
-      <c r="I110" s="16"/>
-      <c r="J110" s="16"/>
-      <c r="K110" s="17"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="18"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
-      <c r="Q110" s="7"/>
-      <c r="R110" s="7"/>
-      <c r="S110" s="7"/>
-      <c r="T110" s="7"/>
-      <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
-      <c r="X110" s="7"/>
-      <c r="Y110" s="7"/>
-      <c r="Z110" s="7"/>
-      <c r="AA110" s="7"/>
-      <c r="AB110" s="7"/>
-      <c r="AC110" s="18"/>
-      <c r="AD110" s="19"/>
-      <c r="AE110" s="18"/>
-      <c r="AS110" s="11"/>
-    </row>
-    <row r="111" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="7"/>
-      <c r="B111" s="18"/>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="16"/>
-      <c r="G111" s="16"/>
-      <c r="H111" s="16"/>
-      <c r="I111" s="16"/>
-      <c r="J111" s="16"/>
-      <c r="K111" s="17"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="18"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
-      <c r="Q111" s="7"/>
-      <c r="R111" s="7"/>
-      <c r="S111" s="7"/>
-      <c r="T111" s="7"/>
-      <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="21"/>
-      <c r="X111" s="7"/>
-      <c r="Y111" s="7"/>
-      <c r="Z111" s="7"/>
-      <c r="AA111" s="7"/>
-      <c r="AB111" s="7"/>
-      <c r="AC111" s="18"/>
-      <c r="AD111" s="19"/>
-      <c r="AE111" s="18"/>
-      <c r="AS111" s="11"/>
-    </row>
-    <row r="112" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A112" s="7"/>
-      <c r="B112" s="18"/>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="16"/>
-      <c r="G112" s="16"/>
-      <c r="H112" s="16"/>
-      <c r="I112" s="16"/>
-      <c r="J112" s="16"/>
-      <c r="K112" s="17"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="18"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="20"/>
-      <c r="Q112" s="7"/>
-      <c r="R112" s="7"/>
-      <c r="S112" s="7"/>
-      <c r="T112" s="7"/>
-      <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="7"/>
-      <c r="X112" s="7"/>
-      <c r="Y112" s="7"/>
-      <c r="Z112" s="7"/>
-      <c r="AA112" s="7"/>
-      <c r="AB112" s="7"/>
-      <c r="AC112" s="18"/>
-      <c r="AD112" s="19"/>
-      <c r="AE112" s="18"/>
-      <c r="AS112" s="11"/>
-    </row>
-    <row r="113" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="7"/>
-      <c r="B113" s="18"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="16"/>
-      <c r="G113" s="16"/>
-      <c r="H113" s="16"/>
-      <c r="I113" s="16"/>
-      <c r="J113" s="16"/>
-      <c r="K113" s="17"/>
-      <c r="L113" s="16"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="18"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
-      <c r="Q113" s="7"/>
-      <c r="R113" s="7"/>
-      <c r="S113" s="7"/>
-      <c r="T113" s="7"/>
-      <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="7"/>
-      <c r="X113" s="7"/>
-      <c r="Y113" s="7"/>
-      <c r="Z113" s="7"/>
-      <c r="AA113" s="7"/>
-      <c r="AB113" s="7"/>
-      <c r="AC113" s="18"/>
-      <c r="AD113" s="19"/>
-      <c r="AE113" s="18"/>
-      <c r="AS113" s="11"/>
-    </row>
-    <row r="114" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A114" s="7"/>
-      <c r="B114" s="18"/>
-      <c r="C114" s="7"/>
-      <c r="D114" s="7"/>
-      <c r="E114" s="7"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="17"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="18"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
-      <c r="Q114" s="7"/>
-      <c r="R114" s="7"/>
-      <c r="S114" s="7"/>
-      <c r="T114" s="7"/>
-      <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="7"/>
-      <c r="X114" s="7"/>
-      <c r="Y114" s="7"/>
-      <c r="Z114" s="7"/>
-      <c r="AA114" s="7"/>
-      <c r="AB114" s="7"/>
-      <c r="AC114" s="18"/>
-      <c r="AD114" s="19"/>
-      <c r="AE114" s="18"/>
-      <c r="AS114" s="11"/>
-    </row>
-    <row r="115" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A115" s="7"/>
-      <c r="B115" s="18"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="17"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
-      <c r="Q115" s="7"/>
-      <c r="R115" s="7"/>
-      <c r="S115" s="7"/>
-      <c r="T115" s="7"/>
-      <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
-      <c r="X115" s="7"/>
-      <c r="Y115" s="7"/>
-      <c r="Z115" s="7"/>
-      <c r="AA115" s="7"/>
-      <c r="AB115" s="7"/>
-      <c r="AC115" s="18"/>
-      <c r="AD115" s="19"/>
-      <c r="AE115" s="18"/>
-      <c r="AS115" s="11"/>
-    </row>
-    <row r="116" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="7"/>
-      <c r="B116" s="18"/>
-      <c r="C116" s="7"/>
-      <c r="D116" s="7"/>
-      <c r="E116" s="7"/>
-      <c r="F116" s="16"/>
-      <c r="G116" s="16"/>
-      <c r="H116" s="16"/>
-      <c r="I116" s="16"/>
-      <c r="J116" s="16"/>
-      <c r="K116" s="17"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
-      <c r="Q116" s="7"/>
-      <c r="R116" s="7"/>
-      <c r="S116" s="7"/>
-      <c r="T116" s="7"/>
-      <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
-      <c r="X116" s="7"/>
-      <c r="Y116" s="7"/>
-      <c r="Z116" s="7"/>
-      <c r="AA116" s="7"/>
-      <c r="AB116" s="7"/>
-      <c r="AC116" s="18"/>
-      <c r="AD116" s="19"/>
-      <c r="AE116" s="18"/>
-      <c r="AS116" s="11"/>
-    </row>
-    <row r="117" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="7"/>
-      <c r="B117" s="18"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="16"/>
-      <c r="G117" s="16"/>
-      <c r="H117" s="16"/>
-      <c r="I117" s="16"/>
-      <c r="J117" s="16"/>
-      <c r="K117" s="17"/>
-      <c r="L117" s="16"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
-      <c r="Q117" s="7"/>
-      <c r="R117" s="7"/>
-      <c r="S117" s="7"/>
-      <c r="T117" s="7"/>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
-      <c r="X117" s="7"/>
-      <c r="Y117" s="7"/>
-      <c r="Z117" s="7"/>
-      <c r="AA117" s="7"/>
-      <c r="AB117" s="7"/>
-      <c r="AC117" s="18"/>
-      <c r="AD117" s="19"/>
-      <c r="AE117" s="18"/>
-      <c r="AS117" s="11"/>
-    </row>
-    <row r="118" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A118" s="7"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="16"/>
-      <c r="H118" s="16"/>
-      <c r="I118" s="16"/>
-      <c r="J118" s="16"/>
-      <c r="K118" s="17"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="18"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7"/>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7"/>
-      <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="7"/>
-      <c r="X118" s="7"/>
-      <c r="Y118" s="7"/>
-      <c r="Z118" s="7"/>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="7"/>
-      <c r="AC118" s="18"/>
-      <c r="AD118" s="19"/>
-      <c r="AE118" s="18"/>
-      <c r="AS118" s="11"/>
-    </row>
-    <row r="119" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="7"/>
-      <c r="B119" s="18"/>
-      <c r="C119" s="7"/>
-      <c r="D119" s="7"/>
-      <c r="E119" s="7"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="16"/>
-      <c r="H119" s="16"/>
-      <c r="I119" s="16"/>
-      <c r="J119" s="16"/>
-      <c r="K119" s="17"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
-      <c r="Q119" s="7"/>
-      <c r="R119" s="7"/>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7"/>
-      <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="7"/>
-      <c r="X119" s="7"/>
-      <c r="Y119" s="7"/>
-      <c r="Z119" s="7"/>
-      <c r="AA119" s="7"/>
-      <c r="AB119" s="7"/>
-      <c r="AC119" s="18"/>
-      <c r="AD119" s="19"/>
-      <c r="AE119" s="18"/>
-      <c r="AS119" s="11"/>
-    </row>
-    <row r="120" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A120" s="7"/>
-      <c r="B120" s="18"/>
-      <c r="C120" s="7"/>
-      <c r="D120" s="7"/>
-      <c r="E120" s="7"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="16"/>
-      <c r="H120" s="16"/>
-      <c r="I120" s="16"/>
-      <c r="J120" s="16"/>
-      <c r="K120" s="17"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="18"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7"/>
-      <c r="T120" s="7"/>
-      <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
-      <c r="W120" s="7"/>
-      <c r="X120" s="7"/>
-      <c r="Y120" s="7"/>
-      <c r="Z120" s="7"/>
-      <c r="AA120" s="7"/>
-      <c r="AB120" s="7"/>
-      <c r="AC120" s="18"/>
-      <c r="AD120" s="19"/>
-      <c r="AE120" s="18"/>
-      <c r="AS120" s="11"/>
-    </row>
-    <row r="121" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A121" s="7"/>
-      <c r="B121" s="18"/>
-      <c r="C121" s="7"/>
-      <c r="D121" s="7"/>
-      <c r="E121" s="7"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="16"/>
-      <c r="H121" s="16"/>
-      <c r="I121" s="16"/>
-      <c r="J121" s="16"/>
-      <c r="K121" s="17"/>
-      <c r="L121" s="16"/>
-      <c r="M121" s="22"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="7"/>
-      <c r="P121" s="7"/>
-      <c r="Q121" s="7"/>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7"/>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
-      <c r="X121" s="7"/>
-      <c r="Y121" s="7"/>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="18"/>
-      <c r="AD121" s="19"/>
-      <c r="AE121" s="18"/>
-      <c r="AS121" s="11"/>
-    </row>
-    <row r="122" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A122" s="7"/>
-      <c r="B122" s="18"/>
-      <c r="C122" s="7"/>
-      <c r="D122" s="7"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="16"/>
-      <c r="G122" s="16"/>
-      <c r="H122" s="16"/>
-      <c r="I122" s="16"/>
-      <c r="J122" s="16"/>
-      <c r="K122" s="17"/>
-      <c r="L122" s="16"/>
-      <c r="M122" s="22"/>
-      <c r="N122" s="18"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7"/>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7"/>
-      <c r="S122" s="7"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7"/>
-      <c r="X122" s="7"/>
-      <c r="Y122" s="7"/>
-      <c r="Z122" s="7"/>
-      <c r="AA122" s="7"/>
-      <c r="AB122" s="7"/>
-      <c r="AC122" s="18"/>
-      <c r="AD122" s="19"/>
-      <c r="AE122" s="18"/>
-      <c r="AS122" s="11"/>
-    </row>
-    <row r="123" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A123" s="7"/>
-      <c r="B123" s="18"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="16"/>
-      <c r="G123" s="16"/>
-      <c r="H123" s="16"/>
-      <c r="I123" s="16"/>
-      <c r="J123" s="16"/>
-      <c r="K123" s="17"/>
-      <c r="L123" s="16"/>
-      <c r="M123" s="22"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="7"/>
-      <c r="P123" s="7"/>
-      <c r="Q123" s="7"/>
-      <c r="R123" s="7"/>
-      <c r="S123" s="7"/>
-      <c r="T123" s="7"/>
-      <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="7"/>
-      <c r="X123" s="7"/>
-      <c r="Y123" s="7"/>
-      <c r="Z123" s="7"/>
-      <c r="AA123" s="7"/>
-      <c r="AB123" s="7"/>
-      <c r="AC123" s="18"/>
-      <c r="AD123" s="19"/>
-      <c r="AE123" s="18"/>
-      <c r="AS123" s="11"/>
-    </row>
-    <row r="124" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A124" s="7"/>
-      <c r="B124" s="18"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="16"/>
-      <c r="G124" s="16"/>
-      <c r="H124" s="16"/>
-      <c r="I124" s="16"/>
-      <c r="J124" s="16"/>
-      <c r="K124" s="17"/>
-      <c r="L124" s="16"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="18"/>
-      <c r="O124" s="7"/>
-      <c r="P124" s="7"/>
-      <c r="Q124" s="7"/>
-      <c r="R124" s="7"/>
-      <c r="S124" s="7"/>
-      <c r="T124" s="7"/>
-      <c r="U124" s="7"/>
-      <c r="V124" s="7"/>
-      <c r="W124" s="7"/>
-      <c r="X124" s="7"/>
-      <c r="Y124" s="7"/>
-      <c r="Z124" s="7"/>
-      <c r="AA124" s="7"/>
-      <c r="AB124" s="7"/>
-      <c r="AC124" s="18"/>
-      <c r="AD124" s="19"/>
-      <c r="AE124" s="18"/>
-      <c r="AS124" s="12"/>
-    </row>
-    <row r="125" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A125" s="7"/>
-      <c r="B125" s="18"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="16"/>
-      <c r="G125" s="16"/>
-      <c r="H125" s="16"/>
-      <c r="I125" s="16"/>
-      <c r="J125" s="16"/>
-      <c r="K125" s="17"/>
-      <c r="L125" s="16"/>
-      <c r="M125" s="22"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="7"/>
-      <c r="P125" s="7"/>
-      <c r="Q125" s="7"/>
-      <c r="R125" s="7"/>
-      <c r="S125" s="7"/>
-      <c r="T125" s="7"/>
-      <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="7"/>
-      <c r="X125" s="7"/>
-      <c r="Y125" s="7"/>
-      <c r="Z125" s="7"/>
-      <c r="AA125" s="7"/>
-      <c r="AB125" s="7"/>
-      <c r="AC125" s="18"/>
-      <c r="AD125" s="19"/>
-      <c r="AE125" s="18"/>
-      <c r="AS125" s="12"/>
-    </row>
-    <row r="126" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A126" s="7"/>
-      <c r="B126" s="18"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="16"/>
-      <c r="G126" s="16"/>
-      <c r="H126" s="16"/>
-      <c r="I126" s="16"/>
-      <c r="J126" s="16"/>
-      <c r="K126" s="17"/>
-      <c r="L126" s="16"/>
-      <c r="M126" s="22"/>
-      <c r="N126" s="18"/>
-      <c r="O126" s="7"/>
-      <c r="P126" s="7"/>
-      <c r="Q126" s="7"/>
-      <c r="R126" s="7"/>
-      <c r="S126" s="7"/>
-      <c r="T126" s="7"/>
-      <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7"/>
-      <c r="X126" s="7"/>
-      <c r="Y126" s="7"/>
-      <c r="Z126" s="7"/>
-      <c r="AA126" s="7"/>
-      <c r="AB126" s="7"/>
-      <c r="AC126" s="18"/>
-      <c r="AD126" s="19"/>
-      <c r="AE126" s="18"/>
-      <c r="AS126" s="12"/>
-    </row>
-    <row r="127" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="7"/>
-      <c r="B127" s="18"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="16"/>
-      <c r="G127" s="16"/>
-      <c r="H127" s="16"/>
-      <c r="I127" s="16"/>
-      <c r="J127" s="16"/>
-      <c r="K127" s="17"/>
-      <c r="L127" s="16"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="18"/>
-      <c r="O127" s="7"/>
-      <c r="P127" s="7"/>
-      <c r="Q127" s="7"/>
-      <c r="R127" s="7"/>
-      <c r="S127" s="7"/>
-      <c r="T127" s="7"/>
-      <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7"/>
-      <c r="X127" s="7"/>
-      <c r="Y127" s="7"/>
-      <c r="Z127" s="7"/>
-      <c r="AA127" s="7"/>
-      <c r="AB127" s="7"/>
-      <c r="AC127" s="18"/>
-      <c r="AD127" s="19"/>
-      <c r="AE127" s="18"/>
-      <c r="AS127" s="12"/>
-    </row>
-    <row r="128" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A128" s="7"/>
-      <c r="B128" s="18"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="16"/>
-      <c r="G128" s="16"/>
-      <c r="H128" s="16"/>
-      <c r="I128" s="16"/>
-      <c r="J128" s="16"/>
-      <c r="K128" s="17"/>
-      <c r="L128" s="16"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="18"/>
-      <c r="O128" s="7"/>
-      <c r="P128" s="7"/>
-      <c r="Q128" s="7"/>
-      <c r="R128" s="7"/>
-      <c r="S128" s="7"/>
-      <c r="T128" s="7"/>
-      <c r="U128" s="7"/>
-      <c r="V128" s="7"/>
-      <c r="W128" s="7"/>
-      <c r="X128" s="7"/>
-      <c r="Y128" s="7"/>
-      <c r="Z128" s="7"/>
-      <c r="AA128" s="7"/>
-      <c r="AB128" s="7"/>
-      <c r="AC128" s="18"/>
-      <c r="AD128" s="19"/>
-      <c r="AE128" s="18"/>
-      <c r="AS128" s="12"/>
-    </row>
-    <row r="129" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A129" s="7"/>
-      <c r="B129" s="18"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="16"/>
-      <c r="G129" s="16"/>
-      <c r="H129" s="16"/>
-      <c r="I129" s="16"/>
-      <c r="J129" s="16"/>
-      <c r="K129" s="17"/>
-      <c r="L129" s="16"/>
-      <c r="M129" s="22"/>
-      <c r="N129" s="18"/>
-      <c r="O129" s="7"/>
-      <c r="P129" s="7"/>
-      <c r="Q129" s="7"/>
-      <c r="R129" s="7"/>
-      <c r="S129" s="7"/>
-      <c r="T129" s="7"/>
-      <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7"/>
-      <c r="X129" s="7"/>
-      <c r="Y129" s="7"/>
-      <c r="Z129" s="7"/>
-      <c r="AA129" s="7"/>
-      <c r="AB129" s="7"/>
-      <c r="AC129" s="18"/>
-      <c r="AD129" s="19"/>
-      <c r="AE129" s="18"/>
-      <c r="AS129" s="12"/>
-    </row>
-    <row r="130" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A130" s="7"/>
-      <c r="B130" s="18"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="16"/>
-      <c r="H130" s="16"/>
-      <c r="I130" s="16"/>
-      <c r="J130" s="16"/>
-      <c r="K130" s="17"/>
-      <c r="L130" s="16"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="18"/>
-      <c r="O130" s="7"/>
-      <c r="P130" s="7"/>
-      <c r="Q130" s="7"/>
-      <c r="R130" s="7"/>
-      <c r="S130" s="7"/>
-      <c r="T130" s="7"/>
-      <c r="U130" s="7"/>
-      <c r="V130" s="7"/>
-      <c r="W130" s="7"/>
-      <c r="X130" s="7"/>
-      <c r="Y130" s="7"/>
-      <c r="Z130" s="7"/>
-      <c r="AA130" s="7"/>
-      <c r="AB130" s="7"/>
-      <c r="AC130" s="18"/>
-      <c r="AD130" s="19"/>
-      <c r="AE130" s="18"/>
-      <c r="AS130" s="12"/>
-    </row>
-    <row r="131" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A131" s="7"/>
-      <c r="B131" s="18"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="18"/>
-      <c r="O131" s="7"/>
-      <c r="P131" s="7"/>
-      <c r="Q131" s="7"/>
-      <c r="R131" s="7"/>
-      <c r="S131" s="7"/>
-      <c r="T131" s="7"/>
-      <c r="U131" s="7"/>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7"/>
-      <c r="X131" s="7"/>
-      <c r="Y131" s="7"/>
-      <c r="Z131" s="7"/>
-      <c r="AA131" s="7"/>
-      <c r="AB131" s="7"/>
-      <c r="AC131" s="18"/>
-      <c r="AD131" s="19"/>
-      <c r="AE131" s="18"/>
-      <c r="AS131" s="12"/>
-    </row>
-    <row r="132" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A132" s="7"/>
-      <c r="B132" s="18"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="17"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="18"/>
-      <c r="O132" s="7"/>
-      <c r="P132" s="7"/>
-      <c r="Q132" s="7"/>
-      <c r="R132" s="7"/>
-      <c r="S132" s="7"/>
-      <c r="T132" s="7"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7"/>
-      <c r="X132" s="7"/>
-      <c r="Y132" s="7"/>
-      <c r="Z132" s="7"/>
-      <c r="AA132" s="7"/>
-      <c r="AB132" s="7"/>
-      <c r="AC132" s="18"/>
-      <c r="AD132" s="19"/>
-      <c r="AE132" s="18"/>
-      <c r="AS132" s="12"/>
-    </row>
-    <row r="133" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A133" s="7"/>
-      <c r="B133" s="18"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="16"/>
-      <c r="G133" s="16"/>
-      <c r="H133" s="16"/>
-      <c r="I133" s="16"/>
-      <c r="J133" s="16"/>
-      <c r="K133" s="17"/>
-      <c r="L133" s="16"/>
-      <c r="M133" s="22"/>
-      <c r="N133" s="18"/>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="7"/>
-      <c r="R133" s="7"/>
-      <c r="S133" s="7"/>
-      <c r="T133" s="7"/>
-      <c r="U133" s="7"/>
-      <c r="V133" s="7"/>
-      <c r="W133" s="7"/>
-      <c r="X133" s="7"/>
-      <c r="Y133" s="7"/>
-      <c r="Z133" s="7"/>
-      <c r="AA133" s="7"/>
-      <c r="AB133" s="7"/>
-      <c r="AC133" s="18"/>
-      <c r="AD133" s="19"/>
-      <c r="AE133" s="18"/>
-      <c r="AS133" s="12"/>
-    </row>
-    <row r="134" spans="1:45" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A134" s="18"/>
-      <c r="B134" s="18"/>
-      <c r="C134" s="18"/>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="23"/>
-      <c r="G134" s="24"/>
-      <c r="H134" s="24"/>
-      <c r="I134" s="24"/>
-      <c r="J134" s="24"/>
-      <c r="K134" s="24"/>
-      <c r="L134" s="24"/>
-      <c r="M134" s="29"/>
-      <c r="N134" s="24"/>
-      <c r="O134" s="18"/>
-      <c r="P134" s="18"/>
-      <c r="Q134" s="18"/>
-      <c r="R134" s="18"/>
-      <c r="S134" s="18"/>
-      <c r="T134" s="18"/>
-      <c r="U134" s="18"/>
-      <c r="V134" s="18"/>
-      <c r="W134" s="18"/>
-      <c r="X134" s="18"/>
-      <c r="Y134" s="18"/>
-      <c r="Z134" s="18"/>
-      <c r="AA134" s="18"/>
-      <c r="AB134" s="25"/>
-      <c r="AC134" s="18"/>
-      <c r="AD134" s="19"/>
-      <c r="AE134" s="18"/>
-    </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A135" s="18"/>
-      <c r="B135" s="18"/>
-      <c r="C135" s="18"/>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="18"/>
-      <c r="H135" s="18"/>
-      <c r="I135" s="18"/>
-      <c r="J135" s="18"/>
-      <c r="K135" s="18"/>
-      <c r="L135" s="18"/>
-      <c r="M135" s="29"/>
-      <c r="N135" s="18"/>
-      <c r="O135" s="18"/>
-      <c r="P135" s="18"/>
-      <c r="Q135" s="18"/>
-      <c r="R135" s="18"/>
-      <c r="S135" s="18"/>
-      <c r="T135" s="18"/>
-      <c r="U135" s="18"/>
-      <c r="V135" s="18"/>
-      <c r="W135" s="18"/>
-      <c r="X135" s="18"/>
-      <c r="Y135" s="18"/>
-      <c r="Z135" s="18"/>
-      <c r="AA135" s="18"/>
-      <c r="AB135" s="18"/>
-      <c r="AC135" s="18"/>
-      <c r="AD135" s="18"/>
-      <c r="AE135" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AB135" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:AB2" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/диплом/база.xlsx
+++ b/диплом/база.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\diplom\диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069F0FB-537D-409D-BFED-8108A2D56D8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53229066-50BE-4BC8-BDB9-7927D78415DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5268" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5268" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="юд" sheetId="2" r:id="rId1"/>
     <sheet name="товаровед" sheetId="4" r:id="rId2"/>
+    <sheet name="сварка" sheetId="6" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">сварка!$A$1:$AB$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">товаровед!$A$1:$AB$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">юд!$A$1:$BN$163</definedName>
     <definedName name="ИН">[1]Проверки!$Q$2:$Q$255</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9804" uniqueCount="1058">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9839" uniqueCount="1064">
   <si>
     <t>Иностранный язык</t>
   </si>
@@ -3212,6 +3214,24 @@
   </si>
   <si>
     <t>а-84</t>
+  </si>
+  <si>
+    <t>Ногмов</t>
+  </si>
+  <si>
+    <t>Лиуан</t>
+  </si>
+  <si>
+    <t>06 июля 1998 года</t>
+  </si>
+  <si>
+    <t>07 марта 2017 года</t>
+  </si>
+  <si>
+    <t>30 января 2017 года</t>
+  </si>
+  <si>
+    <t>свд-1</t>
   </si>
 </sst>
 </file>
@@ -3221,11 +3241,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-FC19]dd\ mmmm\ yyyy\ &quot;года&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
@@ -3300,6 +3328,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3320,99 +3355,116 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -50196,7 +50248,7 @@
   <sortState ref="B2:N27">
     <sortCondition ref="C2"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
   <customProperties>
@@ -50212,11 +50264,11 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -50430,4 +50482,185 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BBCD23A-6B72-4113-B40A-074FE2FD4774}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="4.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="10" customWidth="1"/>
+    <col min="15" max="27" width="5.6640625" style="10" customWidth="1"/>
+    <col min="28" max="28" width="11.109375" style="10" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="69.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>719</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>1042</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>1056</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>1043</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>1044</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>1047</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>1048</v>
+      </c>
+      <c r="V1" s="19" t="s">
+        <v>1049</v>
+      </c>
+      <c r="W1" s="19" t="s">
+        <v>1050</v>
+      </c>
+      <c r="X1" s="19" t="s">
+        <v>1051</v>
+      </c>
+      <c r="Y1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="19" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AA1" s="19" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AB1" s="19" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="18" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="35" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>1062</v>
+      </c>
+      <c r="H2" s="37">
+        <v>217567</v>
+      </c>
+      <c r="I2" s="38">
+        <v>110724</v>
+      </c>
+      <c r="J2" s="38">
+        <v>1093575</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>1061</v>
+      </c>
+      <c r="L2" s="33" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M2" s="39">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="34" t="str">
+        <f>_xlfn.CONCAT(A2,LEFT(C2,2),LEFT(D2,2),LEFT(E2,2))</f>
+        <v>свд-1НоЛиРу</v>
+      </c>
+      <c r="AD2" s="33" t="str">
+        <f>C2&amp;" "&amp;D2&amp;" "&amp;E2&amp;" | "&amp;F2&amp;" | "&amp;I2&amp;" "&amp;J2</f>
+        <v>Ногмов Лиуан Русланович | 06 июля 1998 года | 110724 1093575</v>
+      </c>
+      <c r="AE2" s="34" t="str">
+        <f t="shared" ref="AE2" si="0">"D:\dev\diplom\диплом\img\"&amp;AC2&amp;".png"</f>
+        <v>D:\dev\diplom\диплом\img\свд-1НоЛиРу.png</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:AB1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/диплом/база.xlsx
+++ b/диплом/база.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\diplom\диплом\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53229066-50BE-4BC8-BDB9-7927D78415DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C85703-36CE-4CDF-8CFA-EBF034F2497C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5268" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5268" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="юд" sheetId="2" r:id="rId1"/>
     <sheet name="товаровед" sheetId="4" r:id="rId2"/>
     <sheet name="сварка" sheetId="6" r:id="rId3"/>
+    <sheet name="псд" sheetId="8" r:id="rId4"/>
+    <sheet name="бсд" sheetId="10" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">бсд!$A$1:$CE$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">псд!$A$1:$CE$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">сварка!$A$1:$AB$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">товаровед!$A$1:$AB$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">юд!$A$1:$BN$163</definedName>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9839" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9993" uniqueCount="1082">
   <si>
     <t>Иностранный язык</t>
   </si>
@@ -3232,6 +3236,60 @@
   </si>
   <si>
     <t>свд-1</t>
+  </si>
+  <si>
+    <t>псд</t>
+  </si>
+  <si>
+    <t>02 января 1988 года</t>
+  </si>
+  <si>
+    <t>аттестат об основном общем образовании, 2004 год</t>
+  </si>
+  <si>
+    <t>Балуева</t>
+  </si>
+  <si>
+    <t>Арифа</t>
+  </si>
+  <si>
+    <t>Аминовна</t>
+  </si>
+  <si>
+    <t>0026205</t>
+  </si>
+  <si>
+    <t>30 июня 2006 года</t>
+  </si>
+  <si>
+    <t>25 июня 2006 года</t>
+  </si>
+  <si>
+    <t>Гемуев</t>
+  </si>
+  <si>
+    <t>Тахир</t>
+  </si>
+  <si>
+    <t>29 августа 1991 года</t>
+  </si>
+  <si>
+    <t>Хажмуратович</t>
+  </si>
+  <si>
+    <t>25 июня 2012 года</t>
+  </si>
+  <si>
+    <t>30 июня 2012 года</t>
+  </si>
+  <si>
+    <t>бсд</t>
+  </si>
+  <si>
+    <t>25 июня 2011 года</t>
+  </si>
+  <si>
+    <t>30 июня 2011 года</t>
   </si>
 </sst>
 </file>
@@ -3357,7 +3415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3464,6 +3522,36 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -16820,10 +16908,10 @@
   <dimension ref="A1:CE163"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="AZ11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A163" sqref="A163"/>
+      <selection pane="bottomRight" activeCell="BQ28" sqref="BQ28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -50268,7 +50356,7 @@
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -50491,11 +50579,11 @@
   </sheetPr>
   <dimension ref="A1:AE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -50663,4 +50751,679 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D065929A-D3EC-4E3B-81FA-1BB30963F1FA}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BQ3"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" sqref="A1:XFD3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="4.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="10" customWidth="1"/>
+    <col min="15" max="64" width="5.6640625" style="10" customWidth="1"/>
+    <col min="65" max="65" width="11.109375" style="10" customWidth="1"/>
+    <col min="66" max="66" width="61" style="10" customWidth="1"/>
+    <col min="67" max="67" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="69.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" s="9" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>719</v>
+      </c>
+      <c r="N1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ1" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA1" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB1" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ1" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="14" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" s="38" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="43" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>1072</v>
+      </c>
+      <c r="H2" s="40">
+        <v>206173</v>
+      </c>
+      <c r="I2" s="40">
+        <v>110724</v>
+      </c>
+      <c r="J2" s="44" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K2" s="40" t="s">
+        <v>1071</v>
+      </c>
+      <c r="L2" s="38" t="s">
+        <v>1066</v>
+      </c>
+      <c r="M2" s="42">
+        <v>9</v>
+      </c>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="40"/>
+      <c r="Y2" s="40"/>
+      <c r="Z2" s="40"/>
+      <c r="AA2" s="40"/>
+      <c r="AB2" s="40"/>
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="40"/>
+      <c r="AF2" s="40"/>
+      <c r="AG2" s="40"/>
+      <c r="AH2" s="40"/>
+      <c r="AI2" s="40"/>
+      <c r="AJ2" s="40"/>
+      <c r="AK2" s="40"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="40"/>
+      <c r="AN2" s="40"/>
+      <c r="AO2" s="40"/>
+      <c r="AP2" s="40"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
+      <c r="AY2" s="40"/>
+      <c r="AZ2" s="40"/>
+      <c r="BA2" s="40"/>
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="40"/>
+      <c r="BE2" s="40"/>
+      <c r="BF2" s="40"/>
+      <c r="BG2" s="40"/>
+      <c r="BH2" s="40"/>
+      <c r="BI2" s="40"/>
+      <c r="BJ2" s="40"/>
+      <c r="BK2" s="40"/>
+      <c r="BL2" s="40"/>
+      <c r="BM2" s="40"/>
+      <c r="BN2" s="40"/>
+      <c r="BO2" s="1" t="str">
+        <f>_xlfn.CONCAT(A2,LEFT(C2,2),LEFT(D2,2),LEFT(E2,2))</f>
+        <v>псдБаАрАм</v>
+      </c>
+      <c r="BP2" t="str">
+        <f t="shared" ref="BP2" si="0">C2&amp;" "&amp;D2&amp;" "&amp;E2&amp;" | "&amp;F2&amp;" | "&amp;I2&amp;" "&amp;J2</f>
+        <v>Балуева Арифа Аминовна | 02 января 1988 года | 110724 0026205</v>
+      </c>
+      <c r="BQ2" s="1" t="str">
+        <f t="shared" ref="BQ2" si="1">"D:\dev\diplom\диплом\img\"&amp;BO2&amp;".png"</f>
+        <v>D:\dev\diplom\диплом\img\псдБаАрАм.png</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.3">
+      <c r="C3" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H3" s="10">
+        <v>212195</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>1078</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M3" s="30">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:CE1" xr:uid="{E38FC95E-37B0-4CB0-A63F-1185B70ABF4E}"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EEA4477-E674-4655-97DA-E3B716BCF6BD}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:BQ2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="2" width="4.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="25" style="10" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="10" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="10" customWidth="1"/>
+    <col min="12" max="12" width="51.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.5546875" style="30" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="10" customWidth="1"/>
+    <col min="15" max="64" width="5.6640625" style="10" customWidth="1"/>
+    <col min="65" max="65" width="11.109375" style="10" customWidth="1"/>
+    <col min="66" max="66" width="61" style="10" customWidth="1"/>
+    <col min="67" max="67" width="11.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="69.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" s="48" customFormat="1" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="J1" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="T1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="V1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="W1" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="X1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z1" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB1" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC1" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD1" s="45" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG1" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI1" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="AJ1" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="AK1" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="AL1" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM1" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="AN1" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO1" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="AP1" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR1" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="AS1" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AT1" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU1" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="AV1" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW1" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="AX1" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="AY1" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ1" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA1" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="BB1" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="BC1" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="BD1" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="BE1" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="BF1" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="BG1" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="BH1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI1" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="BJ1" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="BL1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM1" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="BN1" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" s="45"/>
+      <c r="BP1" s="45"/>
+      <c r="BQ1" s="47" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H2" s="10">
+        <v>2021</v>
+      </c>
+      <c r="I2" s="10">
+        <v>110724</v>
+      </c>
+      <c r="J2" s="10">
+        <v>1775268</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>1081</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="M2" s="49">
+        <v>11</v>
+      </c>
+      <c r="BO2" s="1" t="str">
+        <f>_xlfn.CONCAT(A2,LEFT(C2,2),LEFT(D2,2),LEFT(E2,2))</f>
+        <v>бсдГеТаХа</v>
+      </c>
+      <c r="BP2" t="str">
+        <f t="shared" ref="BP2" si="0">C2&amp;" "&amp;D2&amp;" "&amp;E2&amp;" | "&amp;F2&amp;" | "&amp;I2&amp;" "&amp;J2</f>
+        <v>Гемуев Тахир Хажмуратович | 29 августа 1991 года | 110724 1775268</v>
+      </c>
+      <c r="BQ2" s="1" t="str">
+        <f t="shared" ref="BQ2" si="1">"D:\dev\diplom\диплом\img\"&amp;BO2&amp;".png"</f>
+        <v>D:\dev\diplom\диплом\img\бсдГеТаХа.png</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:CE1" xr:uid="{E38FC95E-37B0-4CB0-A63F-1185B70ABF4E}"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="8" scale="55" fitToWidth="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>